--- a/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/model_v1_manual2_EX.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/model_v1_manual2_EX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="388">
   <si>
     <t>General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -724,10 +724,10 @@
     <t>activators</t>
   </si>
   <si>
-    <t>negative effector</t>
+    <t>negative effectors</t>
   </si>
   <si>
-    <t>positive effector</t>
+    <t>positive effectors</t>
   </si>
   <si>
     <t>allosteric</t>
@@ -736,49 +736,43 @@
     <t>subunits</t>
   </si>
   <si>
-    <t>mechanism_ref_type</t>
+    <t>mechanism_refs_type</t>
   </si>
   <si>
-    <t>mechanism_ref</t>
+    <t>mechanism_refs</t>
   </si>
   <si>
-    <t>inhibitors_ref_type</t>
+    <t>inhibitors_refs_type</t>
   </si>
   <si>
-    <t>inhibitors_ref</t>
+    <t>inhibitors_refs</t>
   </si>
   <si>
-    <t>activators_ref_type</t>
+    <t>activators_refs_type</t>
   </si>
   <si>
-    <t>activators_ref</t>
+    <t>activators_refs</t>
   </si>
   <si>
-    <t>negative_effectors_ref_type</t>
+    <t>negative_effectors_refs_type</t>
   </si>
   <si>
-    <t>negative_effectors_ref</t>
+    <t>negative_effectors_refs</t>
   </si>
   <si>
-    <t>positive_effectors_ref_type</t>
+    <t>positive_effectors_refs_type</t>
   </si>
   <si>
-    <t>positive_effectors_ref</t>
+    <t>positive_effectors_refs</t>
   </si>
   <si>
-    <t>subunits_ref_type</t>
+    <t>subunits_refs_type</t>
   </si>
   <si>
-    <t>subunits_ref</t>
+    <t>subunits_refs</t>
   </si>
   <si>
-    <t>subunits_comments1</t>
-  </si>
-  <si>
-    <t>subunits_comments2</t>
-  </si>
-  <si>
-    <t>general_comments</t>
+    <t>comments</t>
   </si>
   <si>
     <t>diffusion</t>
@@ -1307,7 +1301,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1325,10 +1319,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1352,7 +1342,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
+      <selection pane="topLeft" activeCell="G30" activeCellId="1" sqref="1:1 G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1482,12 +1472,12 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="topLeft" activeCell="A38" activeCellId="1" sqref="1:1 A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="2" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2505,7 +2495,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="topLeft" activeCell="A38" activeCellId="1" sqref="1:1 A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3120,7 +3110,7 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3763,16 +3753,16 @@
   <dimension ref="A1:AB42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>223</v>
       </c>
@@ -3809,47 +3799,41 @@
       <c r="L1" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3857,13 +3841,13 @@
         <v>69</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -3875,10 +3859,10 @@
         <v>1</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -3890,10 +3874,10 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
@@ -3904,13 +3888,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>258</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -3922,10 +3906,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -3937,10 +3921,10 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
@@ -3951,13 +3935,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -3969,10 +3953,10 @@
         <v>2</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -3984,10 +3968,10 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
@@ -3998,7 +3982,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>25</v>
@@ -4025,10 +4009,10 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
@@ -4039,13 +4023,13 @@
         <v>73</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4060,13 +4044,13 @@
         <v>2</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="S6" s="4" t="n">
         <v>5470828</v>
@@ -4075,10 +4059,10 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
@@ -4089,10 +4073,10 @@
         <v>74</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>29</v>
@@ -4107,10 +4091,10 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
@@ -4121,13 +4105,13 @@
         <v>75</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>277</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -4139,13 +4123,13 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
@@ -4155,16 +4139,16 @@
         <v>76</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -4182,16 +4166,16 @@
         <v>77</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -4202,10 +4186,10 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
@@ -4215,13 +4199,13 @@
         <v>78</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>289</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -4229,23 +4213,23 @@
         <v>1</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="T11" s="4"/>
       <c r="V11" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
@@ -4255,13 +4239,13 @@
         <v>79</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -4270,13 +4254,13 @@
       </c>
       <c r="T12" s="4"/>
       <c r="X12" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Y12" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
@@ -4286,16 +4270,16 @@
         <v>80</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>299</v>
       </c>
       <c r="G13" s="4"/>
       <c r="I13" s="4" t="s">
@@ -4308,37 +4292,37 @@
         <v>2</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M13" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="O13" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="R13" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="S13" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="R13" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>304</v>
-      </c>
       <c r="T13" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="U13" s="4" t="n">
         <v>6815421</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="W13" s="4" t="n">
         <v>6815421</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
@@ -4348,19 +4332,19 @@
         <v>81</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>308</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>310</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
@@ -4376,31 +4360,31 @@
         <v>2</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M14" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="O14" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="R14" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="S14" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="R14" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>304</v>
-      </c>
       <c r="T14" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="U14" s="4" t="n">
         <v>6815421</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="W14" s="4" t="n">
         <v>6815421</v>
@@ -4413,19 +4397,19 @@
         <v>82</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>299</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4" t="s">
@@ -4441,48 +4425,48 @@
         <v>2</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M15" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="O15" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="R15" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="S15" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="R15" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>304</v>
-      </c>
       <c r="T15" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="U15" s="4" t="n">
         <v>6815421</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="W15" s="4" t="n">
         <v>6815421</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>37</v>
@@ -4495,10 +4479,10 @@
         <v>1</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4506,16 +4490,16 @@
         <v>84</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>316</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>33</v>
@@ -4525,25 +4509,25 @@
         <v>2</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M17" s="4" t="n">
         <v>19686854</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O17" s="4" t="n">
         <v>4154932</v>
       </c>
       <c r="V17" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="W17" s="4" t="n">
         <v>19686854</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4551,16 +4535,16 @@
         <v>85</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>33</v>
@@ -4570,25 +4554,25 @@
         <v>2</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M18" s="4" t="n">
         <v>19686854</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O18" s="4" t="n">
         <v>4154932</v>
       </c>
       <c r="V18" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="W18" s="4" t="n">
         <v>19686854</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4596,10 +4580,10 @@
         <v>86</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>40</v>
@@ -4609,13 +4593,13 @@
         <v>2</v>
       </c>
       <c r="V19" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="Y19" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4623,29 +4607,29 @@
         <v>87</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G20" s="4"/>
       <c r="K20" s="4" t="n">
         <v>2</v>
       </c>
       <c r="V20" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Y20" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4653,35 +4637,35 @@
         <v>88</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G21" s="4"/>
       <c r="K21" s="4" t="n">
         <v>2</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M21" s="4" t="n">
         <v>17914867</v>
       </c>
       <c r="V21" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="W21" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="Y21" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4689,35 +4673,35 @@
         <v>89</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G22" s="4"/>
       <c r="K22" s="4" t="n">
         <v>2</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M22" s="4" t="n">
         <v>17914867</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="W22" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="Y22" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4725,35 +4709,35 @@
         <v>90</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G23" s="4"/>
       <c r="K23" s="4" t="n">
         <v>2</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M23" s="4" t="n">
         <v>8805555</v>
       </c>
       <c r="V23" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="W23" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="X23" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="W23" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="X23" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="Y23" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4761,7 +4745,7 @@
         <v>91</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
@@ -4776,22 +4760,22 @@
         <v>2</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O24" s="4" t="n">
         <v>4154932</v>
       </c>
       <c r="V24" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="W24" s="4" t="n">
         <v>6326623</v>
       </c>
       <c r="X24" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Y24" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4799,34 +4783,34 @@
         <v>92</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K25" s="4" t="n">
         <v>3</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="V25" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="W25" s="4" t="n">
         <v>12876349</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="Y25" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4834,7 +4818,7 @@
         <v>93</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>24</v>
@@ -4846,16 +4830,16 @@
         <v>2</v>
       </c>
       <c r="V26" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="W26" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="X26" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y26" s="4" t="s">
         <v>344</v>
-      </c>
-      <c r="W26" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="X26" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="Y26" s="4" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4863,28 +4847,28 @@
         <v>94</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K27" s="4" t="n">
         <v>4</v>
       </c>
       <c r="V27" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="W27" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="X27" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y27" s="4" t="s">
         <v>349</v>
-      </c>
-      <c r="X27" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="Y27" s="4" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4892,10 +4876,10 @@
         <v>95</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>48</v>
@@ -4904,22 +4888,22 @@
         <v>4</v>
       </c>
       <c r="L28" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="V28" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="W28" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="X28" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="V28" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="W28" s="4" t="s">
+      <c r="Y28" s="4" t="s">
         <v>356</v>
-      </c>
-      <c r="X28" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="Y28" s="4" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4927,7 +4911,7 @@
         <v>96</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>42</v>
@@ -4939,16 +4923,16 @@
         <v>2</v>
       </c>
       <c r="V29" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="W29" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="X29" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="Y29" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4956,13 +4940,13 @@
         <v>97</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>362</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>54</v>
@@ -4974,22 +4958,22 @@
         <v>4</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M30" s="4" t="n">
         <v>7447472</v>
       </c>
       <c r="V30" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="W30" s="4" t="n">
         <v>8636984</v>
       </c>
       <c r="X30" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="Y30" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4997,34 +4981,34 @@
         <v>98</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K31" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M31" s="4" t="n">
         <v>5128739</v>
       </c>
       <c r="V31" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="W31" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Y31" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5032,7 +5016,7 @@
         <v>99</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>51</v>
@@ -5044,19 +5028,19 @@
         <v>1</v>
       </c>
       <c r="V32" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="W32" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="X32" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="W32" s="4" t="s">
+      <c r="Y32" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="X32" s="4" t="s">
+      <c r="Z32" s="4" t="s">
         <v>369</v>
-      </c>
-      <c r="Y32" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="Z32" s="4" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5064,7 +5048,7 @@
         <v>100</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>52</v>
@@ -5076,16 +5060,16 @@
         <v>2</v>
       </c>
       <c r="V33" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="W33" s="4" t="n">
         <v>9376357</v>
       </c>
       <c r="X33" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="Y33" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5093,16 +5077,16 @@
         <v>101</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="J34" s="4" t="n">
         <v>4</v>
@@ -5111,28 +5095,28 @@
         <v>4</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M34" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="T34" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="U34" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="T34" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="U34" s="4" t="s">
-        <v>378</v>
-      </c>
       <c r="V34" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="W34" s="4" t="n">
         <v>468836</v>
       </c>
       <c r="X34" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="Y34" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5140,10 +5124,10 @@
         <v>102</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>56</v>
@@ -5152,16 +5136,16 @@
         <v>1</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M35" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="V35" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="W35" s="4" t="s">
         <v>382</v>
-      </c>
-      <c r="V35" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="W35" s="4" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5169,28 +5153,28 @@
         <v>103</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>385</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>387</v>
       </c>
       <c r="K36" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="V36" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="W36" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5198,7 +5182,7 @@
         <v>104</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K37" s="4" t="n">
         <v>1</v>
@@ -5209,7 +5193,7 @@
         <v>105</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K38" s="4" t="n">
         <v>1</v>
@@ -5220,7 +5204,7 @@
         <v>106</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K39" s="4" t="n">
         <v>1</v>
@@ -5231,7 +5215,7 @@
         <v>107</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>47</v>
@@ -5260,7 +5244,7 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
       <c r="X40" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
@@ -5272,7 +5256,7 @@
         <v>108</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>53</v>
@@ -5301,7 +5285,7 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
       <c r="X41" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
@@ -5313,7 +5297,7 @@
         <v>109</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>60</v>
@@ -5343,7 +5327,7 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
       <c r="X42" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
@@ -5375,7 +5359,7 @@
   <dimension ref="1:50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="topLeft" activeCell="A38" activeCellId="1" sqref="1:1 A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -61902,12 +61886,12 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="H11" activeCellId="1" sqref="1:1 H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -62678,12 +62662,12 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="topLeft" activeCell="A38" activeCellId="1" sqref="1:1 A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -63333,7 +63317,7 @@
   <dimension ref="A2:A43"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
+      <selection pane="topLeft" activeCell="A39" activeCellId="1" sqref="1:1 A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -63570,7 +63554,7 @@
   <dimension ref="A2:A45"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -63817,7 +63801,7 @@
   <dimension ref="A2:A45"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -64064,7 +64048,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="topLeft" activeCell="A38" activeCellId="1" sqref="1:1 A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -64553,7 +64537,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/model_v1_manual2_EX.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/model_v1_manual2_EX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="389">
   <si>
     <t>General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -401,6 +401,9 @@
   </si>
   <si>
     <t>fixed?</t>
+  </si>
+  <si>
+    <t>measured?</t>
   </si>
   <si>
     <t>D-glucose extracellular</t>
@@ -1342,7 +1345,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G30" activeCellId="1" sqref="1:1 G30"/>
+      <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1472,30 +1475,30 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="1" sqref="1:1 A38"/>
+      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="2" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2495,7 +2498,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="1" sqref="1:1 A38"/>
+      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2505,16 +2508,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3110,7 +3113,7 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3120,16 +3123,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3752,88 +3755,88 @@
   </sheetPr>
   <dimension ref="A1:AB42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3841,13 +3844,13 @@
         <v>69</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -3859,10 +3862,10 @@
         <v>1</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -3874,10 +3877,10 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
@@ -3888,13 +3891,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -3906,10 +3909,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -3921,10 +3924,10 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
@@ -3935,13 +3938,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -3953,10 +3956,10 @@
         <v>2</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -3968,10 +3971,10 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
@@ -3982,7 +3985,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>25</v>
@@ -4009,10 +4012,10 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
@@ -4023,13 +4026,13 @@
         <v>73</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4044,13 +4047,13 @@
         <v>2</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="S6" s="4" t="n">
         <v>5470828</v>
@@ -4059,10 +4062,10 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
@@ -4073,10 +4076,10 @@
         <v>74</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>29</v>
@@ -4091,10 +4094,10 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
@@ -4105,13 +4108,13 @@
         <v>75</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -4123,13 +4126,13 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
@@ -4139,16 +4142,16 @@
         <v>76</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -4166,16 +4169,16 @@
         <v>77</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>281</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -4186,10 +4189,10 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
@@ -4199,13 +4202,13 @@
         <v>78</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -4213,23 +4216,23 @@
         <v>1</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="T11" s="4"/>
       <c r="V11" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
@@ -4239,13 +4242,13 @@
         <v>79</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -4254,13 +4257,13 @@
       </c>
       <c r="T12" s="4"/>
       <c r="X12" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y12" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
@@ -4270,16 +4273,16 @@
         <v>80</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G13" s="4"/>
       <c r="I13" s="4" t="s">
@@ -4292,37 +4295,37 @@
         <v>2</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="U13" s="4" t="n">
         <v>6815421</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W13" s="4" t="n">
         <v>6815421</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
@@ -4332,19 +4335,19 @@
         <v>81</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
@@ -4360,31 +4363,31 @@
         <v>2</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="U14" s="4" t="n">
         <v>6815421</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W14" s="4" t="n">
         <v>6815421</v>
@@ -4397,19 +4400,19 @@
         <v>82</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4" t="s">
@@ -4425,48 +4428,48 @@
         <v>2</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="U15" s="4" t="n">
         <v>6815421</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W15" s="4" t="n">
         <v>6815421</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>37</v>
@@ -4479,10 +4482,10 @@
         <v>1</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4490,16 +4493,16 @@
         <v>84</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>33</v>
@@ -4509,25 +4512,25 @@
         <v>2</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M17" s="4" t="n">
         <v>19686854</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O17" s="4" t="n">
         <v>4154932</v>
       </c>
       <c r="V17" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W17" s="4" t="n">
         <v>19686854</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4535,16 +4538,16 @@
         <v>85</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>33</v>
@@ -4554,25 +4557,25 @@
         <v>2</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M18" s="4" t="n">
         <v>19686854</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O18" s="4" t="n">
         <v>4154932</v>
       </c>
       <c r="V18" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W18" s="4" t="n">
         <v>19686854</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4580,10 +4583,10 @@
         <v>86</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>40</v>
@@ -4593,13 +4596,13 @@
         <v>2</v>
       </c>
       <c r="V19" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Y19" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4607,29 +4610,29 @@
         <v>87</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G20" s="4"/>
       <c r="K20" s="4" t="n">
         <v>2</v>
       </c>
       <c r="V20" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y20" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4637,35 +4640,35 @@
         <v>88</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G21" s="4"/>
       <c r="K21" s="4" t="n">
         <v>2</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M21" s="4" t="n">
         <v>17914867</v>
       </c>
       <c r="V21" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="W21" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Y21" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4673,35 +4676,35 @@
         <v>89</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G22" s="4"/>
       <c r="K22" s="4" t="n">
         <v>2</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M22" s="4" t="n">
         <v>17914867</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="W22" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y22" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4709,35 +4712,35 @@
         <v>90</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G23" s="4"/>
       <c r="K23" s="4" t="n">
         <v>2</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M23" s="4" t="n">
         <v>8805555</v>
       </c>
       <c r="V23" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="W23" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="X23" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Y23" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4745,7 +4748,7 @@
         <v>91</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
@@ -4760,22 +4763,22 @@
         <v>2</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O24" s="4" t="n">
         <v>4154932</v>
       </c>
       <c r="V24" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W24" s="4" t="n">
         <v>6326623</v>
       </c>
       <c r="X24" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y24" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4783,34 +4786,34 @@
         <v>92</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K25" s="4" t="n">
         <v>3</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="V25" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W25" s="4" t="n">
         <v>12876349</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y25" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4818,7 +4821,7 @@
         <v>93</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>24</v>
@@ -4830,16 +4833,16 @@
         <v>2</v>
       </c>
       <c r="V26" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="W26" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="X26" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Y26" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4847,28 +4850,28 @@
         <v>94</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K27" s="4" t="n">
         <v>4</v>
       </c>
       <c r="V27" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="W27" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="X27" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Y27" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4876,10 +4879,10 @@
         <v>95</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>48</v>
@@ -4888,22 +4891,22 @@
         <v>4</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="V28" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W28" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="X28" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Y28" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4911,7 +4914,7 @@
         <v>96</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>42</v>
@@ -4923,16 +4926,16 @@
         <v>2</v>
       </c>
       <c r="V29" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W29" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="X29" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Y29" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4940,13 +4943,13 @@
         <v>97</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>54</v>
@@ -4958,22 +4961,22 @@
         <v>4</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M30" s="4" t="n">
         <v>7447472</v>
       </c>
       <c r="V30" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W30" s="4" t="n">
         <v>8636984</v>
       </c>
       <c r="X30" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Y30" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4981,34 +4984,34 @@
         <v>98</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K31" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M31" s="4" t="n">
         <v>5128739</v>
       </c>
       <c r="V31" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W31" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y31" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5016,7 +5019,7 @@
         <v>99</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>51</v>
@@ -5028,19 +5031,19 @@
         <v>1</v>
       </c>
       <c r="V32" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="W32" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="X32" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Y32" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z32" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5048,7 +5051,7 @@
         <v>100</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>52</v>
@@ -5060,16 +5063,16 @@
         <v>2</v>
       </c>
       <c r="V33" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W33" s="4" t="n">
         <v>9376357</v>
       </c>
       <c r="X33" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Y33" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5077,16 +5080,16 @@
         <v>101</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J34" s="4" t="n">
         <v>4</v>
@@ -5095,28 +5098,28 @@
         <v>4</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="U34" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="V34" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W34" s="4" t="n">
         <v>468836</v>
       </c>
       <c r="X34" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Y34" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5124,10 +5127,10 @@
         <v>102</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>56</v>
@@ -5136,16 +5139,16 @@
         <v>1</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="V35" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W35" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5153,28 +5156,28 @@
         <v>103</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K36" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="V36" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W36" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5182,7 +5185,7 @@
         <v>104</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K37" s="4" t="n">
         <v>1</v>
@@ -5193,7 +5196,7 @@
         <v>105</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K38" s="4" t="n">
         <v>1</v>
@@ -5204,7 +5207,7 @@
         <v>106</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K39" s="4" t="n">
         <v>1</v>
@@ -5215,7 +5218,7 @@
         <v>107</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>47</v>
@@ -5244,7 +5247,7 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
       <c r="X40" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
@@ -5256,7 +5259,7 @@
         <v>108</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>53</v>
@@ -5285,7 +5288,7 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
       <c r="X41" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
@@ -5297,7 +5300,7 @@
         <v>109</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>60</v>
@@ -5327,7 +5330,7 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
       <c r="X42" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
@@ -5359,7 +5362,7 @@
   <dimension ref="1:50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="1" sqref="1:1 A38"/>
+      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -61883,15 +61886,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="1" sqref="1:1 H11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I36" activeCellId="0" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -61911,13 +61914,16 @@
       <c r="E1" s="3" t="s">
         <v>122</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>0</v>
@@ -61927,6 +61933,9 @@
       </c>
       <c r="E2" s="4" t="n">
         <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61934,7 +61943,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>1</v>
@@ -61943,6 +61952,9 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -61951,7 +61963,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>1</v>
@@ -61961,6 +61973,9 @@
       </c>
       <c r="E4" s="4" t="n">
         <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61968,7 +61983,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>1</v>
@@ -61977,6 +61992,9 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -61985,7 +62003,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>1</v>
@@ -61995,6 +62013,9 @@
       </c>
       <c r="E6" s="4" t="n">
         <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62002,7 +62023,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>0</v>
@@ -62012,6 +62033,9 @@
       </c>
       <c r="E7" s="4" t="n">
         <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62019,7 +62043,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>1</v>
@@ -62028,6 +62052,9 @@
         <v>1</v>
       </c>
       <c r="E8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62036,7 +62063,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>1</v>
@@ -62045,6 +62072,9 @@
         <v>1</v>
       </c>
       <c r="E9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62053,7 +62083,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>1</v>
@@ -62063,6 +62093,9 @@
       </c>
       <c r="E10" s="4" t="n">
         <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62070,7 +62103,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>1</v>
@@ -62079,6 +62112,9 @@
         <v>1</v>
       </c>
       <c r="E11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62087,7 +62123,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>1</v>
@@ -62096,6 +62132,9 @@
         <v>1</v>
       </c>
       <c r="E12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62104,7 +62143,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C13" s="4" t="n">
         <v>1</v>
@@ -62113,6 +62152,9 @@
         <v>1</v>
       </c>
       <c r="E13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62121,7 +62163,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>1</v>
@@ -62130,6 +62172,9 @@
         <v>1</v>
       </c>
       <c r="E14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62138,7 +62183,7 @@
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>1</v>
@@ -62147,6 +62192,9 @@
         <v>1</v>
       </c>
       <c r="E15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62155,7 +62203,7 @@
         <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>1</v>
@@ -62164,6 +62212,9 @@
         <v>1</v>
       </c>
       <c r="E16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62172,7 +62223,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C17" s="4" t="n">
         <v>1</v>
@@ -62181,6 +62232,9 @@
         <v>1</v>
       </c>
       <c r="E17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62189,7 +62243,7 @@
         <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C18" s="4" t="n">
         <v>1</v>
@@ -62198,6 +62252,9 @@
         <v>1</v>
       </c>
       <c r="E18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62206,7 +62263,7 @@
         <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>0</v>
@@ -62215,6 +62272,9 @@
         <v>1</v>
       </c>
       <c r="E19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -62223,7 +62283,7 @@
         <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>0</v>
@@ -62233,6 +62293,9 @@
       </c>
       <c r="E20" s="4" t="n">
         <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62240,7 +62303,7 @@
         <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C21" s="4" t="n">
         <v>1</v>
@@ -62249,6 +62312,9 @@
         <v>1</v>
       </c>
       <c r="E21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62257,7 +62323,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C22" s="4" t="n">
         <v>0</v>
@@ -62267,6 +62333,9 @@
       </c>
       <c r="E22" s="4" t="n">
         <v>1</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62274,7 +62343,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C23" s="4" t="n">
         <v>1</v>
@@ -62283,6 +62352,9 @@
         <v>1</v>
       </c>
       <c r="E23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62291,7 +62363,7 @@
         <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>1</v>
@@ -62300,6 +62372,9 @@
         <v>1</v>
       </c>
       <c r="E24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62308,7 +62383,7 @@
         <v>41</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C25" s="4" t="n">
         <v>1</v>
@@ -62317,6 +62392,9 @@
         <v>1</v>
       </c>
       <c r="E25" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62325,7 +62403,7 @@
         <v>42</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C26" s="4" t="n">
         <v>1</v>
@@ -62335,6 +62413,9 @@
       </c>
       <c r="E26" s="4" t="n">
         <v>0</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62342,7 +62423,7 @@
         <v>43</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>1</v>
@@ -62351,6 +62432,9 @@
         <v>1</v>
       </c>
       <c r="E27" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62359,7 +62443,7 @@
         <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>1</v>
@@ -62368,6 +62452,9 @@
         <v>1</v>
       </c>
       <c r="E28" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62376,7 +62463,7 @@
         <v>45</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C29" s="4" t="n">
         <v>1</v>
@@ -62385,6 +62472,9 @@
         <v>1</v>
       </c>
       <c r="E29" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62393,7 +62483,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>1</v>
@@ -62402,6 +62492,9 @@
         <v>1</v>
       </c>
       <c r="E30" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62410,7 +62503,7 @@
         <v>47</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C31" s="4" t="n">
         <v>1</v>
@@ -62419,6 +62512,9 @@
         <v>1</v>
       </c>
       <c r="E31" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62427,7 +62523,7 @@
         <v>48</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C32" s="4" t="n">
         <v>1</v>
@@ -62436,6 +62532,9 @@
         <v>1</v>
       </c>
       <c r="E32" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62444,7 +62543,7 @@
         <v>49</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C33" s="4" t="n">
         <v>1</v>
@@ -62453,6 +62552,9 @@
         <v>1</v>
       </c>
       <c r="E33" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62461,7 +62563,7 @@
         <v>50</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C34" s="4" t="n">
         <v>1</v>
@@ -62470,6 +62572,9 @@
         <v>1</v>
       </c>
       <c r="E34" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62478,7 +62583,7 @@
         <v>51</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C35" s="4" t="n">
         <v>1</v>
@@ -62487,6 +62592,9 @@
         <v>1</v>
       </c>
       <c r="E35" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62495,7 +62603,7 @@
         <v>52</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>1</v>
@@ -62505,6 +62613,9 @@
       </c>
       <c r="E36" s="4" t="n">
         <v>0</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62512,7 +62623,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C37" s="4" t="n">
         <v>1</v>
@@ -62521,6 +62632,9 @@
         <v>1</v>
       </c>
       <c r="E37" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62529,7 +62643,7 @@
         <v>54</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>1</v>
@@ -62538,6 +62652,9 @@
         <v>1</v>
       </c>
       <c r="E38" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62546,7 +62663,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C39" s="4" t="n">
         <v>1</v>
@@ -62555,6 +62672,9 @@
         <v>1</v>
       </c>
       <c r="E39" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62563,7 +62683,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C40" s="4" t="n">
         <v>1</v>
@@ -62572,6 +62692,9 @@
         <v>1</v>
       </c>
       <c r="E40" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62580,7 +62703,7 @@
         <v>57</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C41" s="4" t="n">
         <v>0</v>
@@ -62590,6 +62713,9 @@
       </c>
       <c r="E41" s="4" t="n">
         <v>1</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62597,7 +62723,7 @@
         <v>58</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C42" s="4" t="n">
         <v>0</v>
@@ -62607,6 +62733,9 @@
       </c>
       <c r="E42" s="4" t="n">
         <v>1</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62614,7 +62743,7 @@
         <v>59</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C43" s="4" t="n">
         <v>0</v>
@@ -62624,6 +62753,9 @@
       </c>
       <c r="E43" s="4" t="n">
         <v>1</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62631,7 +62763,7 @@
         <v>60</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>0</v>
@@ -62641,6 +62773,9 @@
       </c>
       <c r="E44" s="4" t="n">
         <v>1</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -62662,12 +62797,12 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="1" sqref="1:1 A38"/>
+      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -62676,16 +62811,16 @@
         <v>118</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62693,7 +62828,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>0</v>
@@ -62707,7 +62842,7 @@
         <v>70</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>0</v>
@@ -62721,7 +62856,7 @@
         <v>71</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>0</v>
@@ -62735,7 +62870,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>0</v>
@@ -62749,7 +62884,7 @@
         <v>73</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>0</v>
@@ -62763,7 +62898,7 @@
         <v>74</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>0</v>
@@ -62777,7 +62912,7 @@
         <v>75</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>0</v>
@@ -62791,7 +62926,7 @@
         <v>76</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>0</v>
@@ -62805,7 +62940,7 @@
         <v>77</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>0</v>
@@ -62819,7 +62954,7 @@
         <v>78</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>0</v>
@@ -62833,7 +62968,7 @@
         <v>79</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>0</v>
@@ -62847,7 +62982,7 @@
         <v>80</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C13" s="4" t="n">
         <v>0</v>
@@ -62856,7 +62991,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62864,7 +62999,7 @@
         <v>81</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>0</v>
@@ -62873,7 +63008,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62881,7 +63016,7 @@
         <v>82</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>0</v>
@@ -62890,7 +63025,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62898,7 +63033,7 @@
         <v>83</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>0</v>
@@ -62913,7 +63048,7 @@
         <v>84</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C17" s="4" t="n">
         <v>0</v>
@@ -62928,7 +63063,7 @@
         <v>85</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C18" s="4" t="n">
         <v>0</v>
@@ -62943,7 +63078,7 @@
         <v>86</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>0</v>
@@ -62958,7 +63093,7 @@
         <v>87</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>0</v>
@@ -62973,7 +63108,7 @@
         <v>88</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C21" s="4" t="n">
         <v>0</v>
@@ -62988,7 +63123,7 @@
         <v>89</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C22" s="4" t="n">
         <v>0</v>
@@ -63003,7 +63138,7 @@
         <v>90</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C23" s="4" t="n">
         <v>0</v>
@@ -63018,7 +63153,7 @@
         <v>91</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>0</v>
@@ -63033,7 +63168,7 @@
         <v>92</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C25" s="4" t="n">
         <v>0</v>
@@ -63048,7 +63183,7 @@
         <v>93</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C26" s="4" t="n">
         <v>0</v>
@@ -63063,7 +63198,7 @@
         <v>94</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>0</v>
@@ -63078,7 +63213,7 @@
         <v>95</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>0</v>
@@ -63093,7 +63228,7 @@
         <v>96</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C29" s="4" t="n">
         <v>0</v>
@@ -63108,7 +63243,7 @@
         <v>97</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>0</v>
@@ -63123,7 +63258,7 @@
         <v>98</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C31" s="4" t="n">
         <v>0</v>
@@ -63138,7 +63273,7 @@
         <v>99</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C32" s="4" t="n">
         <v>0</v>
@@ -63153,7 +63288,7 @@
         <v>100</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C33" s="4" t="n">
         <v>0</v>
@@ -63168,7 +63303,7 @@
         <v>101</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C34" s="4" t="n">
         <v>0</v>
@@ -63183,7 +63318,7 @@
         <v>102</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C35" s="4" t="n">
         <v>0</v>
@@ -63198,7 +63333,7 @@
         <v>103</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>0</v>
@@ -63213,7 +63348,7 @@
         <v>104</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C37" s="4" t="n">
         <v>0</v>
@@ -63228,7 +63363,7 @@
         <v>105</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>0</v>
@@ -63243,7 +63378,7 @@
         <v>106</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C39" s="4" t="n">
         <v>0</v>
@@ -63258,7 +63393,7 @@
         <v>107</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C40" s="4" t="n">
         <v>0</v>
@@ -63273,7 +63408,7 @@
         <v>108</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C41" s="4" t="n">
         <v>0</v>
@@ -63288,7 +63423,7 @@
         <v>109</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C42" s="4" t="n">
         <v>0</v>
@@ -63317,7 +63452,7 @@
   <dimension ref="A2:A43"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A39" activeCellId="1" sqref="1:1 A39"/>
+      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -63554,7 +63689,7 @@
   <dimension ref="A2:A45"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -63564,7 +63699,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -63801,7 +63936,7 @@
   <dimension ref="A2:A45"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -63811,7 +63946,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -64048,7 +64183,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="1" sqref="1:1 A38"/>
+      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -64058,13 +64193,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -64537,7 +64672,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -64547,13 +64682,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/model_v1_manual2_EX.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/model_v1_manual2_EX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,1173 +32,1158 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="384">
   <si>
-    <t>General Reaction and Sampling Platform (GRASP)</t>
+    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
   <si>
-    <t>Model name</t>
+    <t xml:space="preserve">Model name</t>
   </si>
   <si>
-    <t>putida_v1</t>
+    <t xml:space="preserve">putida_v1</t>
   </si>
   <si>
-    <t>Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
   </si>
   <si>
-    <t>ORACLE</t>
+    <t xml:space="preserve">ORACLE</t>
   </si>
   <si>
-    <t>NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
   </si>
   <si>
-    <t>FMINCON</t>
+    <t xml:space="preserve">FMINCON</t>
   </si>
   <si>
-    <t>Number of exp. conditions (excluding reference state)</t>
+    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
   </si>
   <si>
-    <t>Number of model structures</t>
+    <t xml:space="preserve">Number of model structures</t>
   </si>
   <si>
-    <t>Number of particles</t>
+    <t xml:space="preserve">Number of particles</t>
   </si>
   <si>
-    <t>Parallel mode (ON = 1; OFF = 0)</t>
+    <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t>Number of cores (ignored if Parallel mode disabled)</t>
+    <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t>Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
+    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
   </si>
   <si>
-    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
+    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t>Compute thermodynamics (ON = 1; OFF = 0)</t>
+    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t>Inicial tolerance (OPTIONAL)</t>
+    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
   </si>
   <si>
-    <t>Final tolerance (in the case of ORACLE, set to 1)</t>
+    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
   </si>
   <si>
-    <t>rxn ID</t>
+    <t xml:space="preserve">rxn ID</t>
   </si>
   <si>
-    <t>m_glc__D_e</t>
+    <t xml:space="preserve">m_glc__D_e</t>
   </si>
   <si>
-    <t>m_glc__D_p</t>
+    <t xml:space="preserve">m_glc__D_p</t>
   </si>
   <si>
-    <t>m_atp_c</t>
+    <t xml:space="preserve">m_atp_c</t>
   </si>
   <si>
-    <t>m_glc__D_c</t>
+    <t xml:space="preserve">m_glc__D_c</t>
   </si>
   <si>
-    <t>m_adp_c</t>
+    <t xml:space="preserve">m_adp_c</t>
   </si>
   <si>
-    <t>m_pi_c</t>
+    <t xml:space="preserve">m_pi_c</t>
   </si>
   <si>
-    <t>m_g6p_c</t>
+    <t xml:space="preserve">m_g6p_c</t>
   </si>
   <si>
-    <t>m_glcn_p</t>
+    <t xml:space="preserve">m_glcn_p</t>
   </si>
   <si>
-    <t>m_glcn_c</t>
+    <t xml:space="preserve">m_glcn_c</t>
   </si>
   <si>
-    <t>m_6pgc_c</t>
+    <t xml:space="preserve">m_6pgc_c</t>
   </si>
   <si>
-    <t>m_2dhglcn_p</t>
+    <t xml:space="preserve">m_2dhglcn_p</t>
   </si>
   <si>
-    <t>m_2dhglcn_c</t>
+    <t xml:space="preserve">m_2dhglcn_c</t>
   </si>
   <si>
-    <t>m_6p2dhglcn_c</t>
+    <t xml:space="preserve">m_6p2dhglcn_c</t>
   </si>
   <si>
-    <t>m_nadh_c</t>
+    <t xml:space="preserve">m_nadh_c</t>
   </si>
   <si>
-    <t>m_nad_c</t>
+    <t xml:space="preserve">m_nad_c</t>
   </si>
   <si>
-    <t>m_nadph_c</t>
+    <t xml:space="preserve">m_nadph_c</t>
   </si>
   <si>
-    <t>m_nadp_c</t>
+    <t xml:space="preserve">m_nadp_c</t>
   </si>
   <si>
-    <t>m_q8_c</t>
+    <t xml:space="preserve">m_q8_c</t>
   </si>
   <si>
-    <t>m_q8h2_c</t>
+    <t xml:space="preserve">m_q8h2_c</t>
   </si>
   <si>
-    <t>m_6pgl_c</t>
+    <t xml:space="preserve">m_6pgl_c</t>
   </si>
   <si>
-    <t>m_co2_c</t>
+    <t xml:space="preserve">m_co2_c</t>
   </si>
   <si>
-    <t>m_ru5p__D_c</t>
+    <t xml:space="preserve">m_ru5p__D_c</t>
   </si>
   <si>
-    <t>m_r5p_c</t>
+    <t xml:space="preserve">m_r5p_c</t>
   </si>
   <si>
-    <t>m_xu5p__D_c</t>
+    <t xml:space="preserve">m_xu5p__D_c</t>
   </si>
   <si>
-    <t>m_g3p_c</t>
+    <t xml:space="preserve">m_g3p_c</t>
   </si>
   <si>
-    <t>m_s7p_c</t>
+    <t xml:space="preserve">m_s7p_c</t>
   </si>
   <si>
-    <t>m_e4p_c</t>
+    <t xml:space="preserve">m_e4p_c</t>
   </si>
   <si>
-    <t>m_f6p_c</t>
+    <t xml:space="preserve">m_f6p_c</t>
   </si>
   <si>
-    <t>m_2ddg6p_c</t>
+    <t xml:space="preserve">m_2ddg6p_c</t>
   </si>
   <si>
-    <t>m_pyr_c</t>
+    <t xml:space="preserve">m_pyr_c</t>
   </si>
   <si>
-    <t>m_fdp_c</t>
+    <t xml:space="preserve">m_fdp_c</t>
   </si>
   <si>
-    <t>m_dhap_c</t>
+    <t xml:space="preserve">m_dhap_c</t>
   </si>
   <si>
-    <t>m_13dpg_c</t>
+    <t xml:space="preserve">m_13dpg_c</t>
   </si>
   <si>
-    <t>m_3pg_c</t>
+    <t xml:space="preserve">m_3pg_c</t>
   </si>
   <si>
-    <t>m_2pg_c</t>
+    <t xml:space="preserve">m_2pg_c</t>
   </si>
   <si>
-    <t>m_pep_c</t>
+    <t xml:space="preserve">m_pep_c</t>
   </si>
   <si>
-    <t>m_h2o2_c</t>
+    <t xml:space="preserve">m_h2o2_c</t>
   </si>
   <si>
-    <t>m_gthrd_c</t>
+    <t xml:space="preserve">m_gthrd_c</t>
   </si>
   <si>
-    <t>m_gthox_c</t>
+    <t xml:space="preserve">m_gthox_c</t>
   </si>
   <si>
-    <t>m_h2o_c</t>
+    <t xml:space="preserve">m_h2o_c</t>
   </si>
   <si>
-    <t>m_pyr_e</t>
+    <t xml:space="preserve">m_pyr_e</t>
   </si>
   <si>
-    <t>m_pep_e</t>
+    <t xml:space="preserve">m_pep_e</t>
   </si>
   <si>
-    <t>m_h2o2_e</t>
+    <t xml:space="preserve">m_h2o2_e</t>
   </si>
   <si>
-    <t>m_g6p_e</t>
+    <t xml:space="preserve">m_g6p_e</t>
   </si>
   <si>
-    <t>m_6pgc_e</t>
+    <t xml:space="preserve">m_6pgc_e</t>
   </si>
   <si>
-    <t>m_r5p_e</t>
+    <t xml:space="preserve">m_r5p_e</t>
   </si>
   <si>
-    <t>m_xu5p__D_e</t>
+    <t xml:space="preserve">m_xu5p__D_e</t>
   </si>
   <si>
-    <t>m_g3p_e</t>
+    <t xml:space="preserve">m_g3p_e</t>
   </si>
   <si>
-    <t>m_e4p_e</t>
+    <t xml:space="preserve">m_e4p_e</t>
   </si>
   <si>
-    <t>m_f6p_e</t>
+    <t xml:space="preserve">m_f6p_e</t>
   </si>
   <si>
-    <t>m_3pg_e</t>
+    <t xml:space="preserve">m_3pg_e</t>
   </si>
   <si>
-    <t>R_GLCtex</t>
+    <t xml:space="preserve">R_GLCtex</t>
   </si>
   <si>
-    <t>R_GLCabcpp</t>
+    <t xml:space="preserve">R_GLCabcpp</t>
   </si>
   <si>
-    <t>R_GLK</t>
+    <t xml:space="preserve">R_GLK</t>
   </si>
   <si>
-    <t>R_GLCNt2rpp</t>
+    <t xml:space="preserve">R_GLCNt2rpp</t>
   </si>
   <si>
-    <t>R_GNK</t>
+    <t xml:space="preserve">R_GNK</t>
   </si>
   <si>
-    <t>R_2DHGLCNkt_tpp</t>
+    <t xml:space="preserve">R_2DHGLCNkt_tpp</t>
   </si>
   <si>
-    <t>R_2DHGLCK</t>
+    <t xml:space="preserve">R_2DHGLCK</t>
   </si>
   <si>
-    <t>R_PGLCNDH_NAD</t>
+    <t xml:space="preserve">R_PGLCNDH_NAD</t>
   </si>
   <si>
-    <t>R_PGLCNDH_NADP</t>
+    <t xml:space="preserve">R_PGLCNDH_NADP</t>
   </si>
   <si>
-    <t>R_GLCDpp</t>
+    <t xml:space="preserve">R_GLCDpp</t>
   </si>
   <si>
-    <t>R_GAD2ktpp</t>
+    <t xml:space="preserve">R_GAD2ktpp</t>
   </si>
   <si>
-    <t>R_G6PDH2</t>
+    <t xml:space="preserve">R_G6PDH2</t>
   </si>
   <si>
-    <t>R_G6PDH2_NAD</t>
+    <t xml:space="preserve">R_G6PDH2_NAD</t>
   </si>
   <si>
-    <t>R_G6PDH2_NADP</t>
+    <t xml:space="preserve">R_G6PDH2_NADP</t>
   </si>
   <si>
-    <t>R_PGL</t>
+    <t xml:space="preserve">R_PGL</t>
   </si>
   <si>
-    <t>R_GND_NAD</t>
+    <t xml:space="preserve">R_GND_NAD</t>
   </si>
   <si>
-    <t>R_GND_NADP</t>
+    <t xml:space="preserve">R_GND_NADP</t>
   </si>
   <si>
-    <t>R_RPI</t>
+    <t xml:space="preserve">R_RPI</t>
   </si>
   <si>
-    <t>R_RPE</t>
+    <t xml:space="preserve">R_RPE</t>
   </si>
   <si>
-    <t>R_TKT1</t>
+    <t xml:space="preserve">R_TKT1</t>
   </si>
   <si>
-    <t>R_TKT2</t>
+    <t xml:space="preserve">R_TKT2</t>
   </si>
   <si>
-    <t>R_TALA</t>
+    <t xml:space="preserve">R_TALA</t>
   </si>
   <si>
-    <t>R_EDD</t>
+    <t xml:space="preserve">R_EDD</t>
   </si>
   <si>
-    <t>R_EDA</t>
+    <t xml:space="preserve">R_EDA</t>
   </si>
   <si>
-    <t>R_PGI</t>
+    <t xml:space="preserve">R_PGI</t>
   </si>
   <si>
-    <t>R_FBP</t>
+    <t xml:space="preserve">R_FBP</t>
   </si>
   <si>
-    <t>R_FBA</t>
+    <t xml:space="preserve">R_FBA</t>
   </si>
   <si>
-    <t>R_TPI</t>
+    <t xml:space="preserve">R_TPI</t>
   </si>
   <si>
-    <t>R_GAPD</t>
+    <t xml:space="preserve">R_GAPD</t>
   </si>
   <si>
-    <t>R_PGK</t>
+    <t xml:space="preserve">R_PGK</t>
   </si>
   <si>
-    <t>R_PGM</t>
+    <t xml:space="preserve">R_PGM</t>
   </si>
   <si>
-    <t>R_ENO</t>
+    <t xml:space="preserve">R_ENO</t>
   </si>
   <si>
-    <t>R_PYK</t>
+    <t xml:space="preserve">R_PYK</t>
   </si>
   <si>
-    <t>R_GTHPi</t>
+    <t xml:space="preserve">R_GTHPi</t>
   </si>
   <si>
-    <t>R_GTHOr</t>
+    <t xml:space="preserve">R_GTHOr</t>
   </si>
   <si>
-    <t>R_AXPr</t>
+    <t xml:space="preserve">R_AXPr</t>
   </si>
   <si>
-    <t>R_NADHr</t>
+    <t xml:space="preserve">R_NADHr</t>
   </si>
   <si>
-    <t>R_NADPHr</t>
+    <t xml:space="preserve">R_NADPHr</t>
   </si>
   <si>
-    <t>R_EX_pyr</t>
+    <t xml:space="preserve">R_EX_pyr</t>
   </si>
   <si>
-    <t>R_EX_pep</t>
+    <t xml:space="preserve">R_EX_pep</t>
   </si>
   <si>
-    <t>R_EX_h2o2</t>
+    <t xml:space="preserve">R_EX_h2o2</t>
   </si>
   <si>
-    <t>R_EX_g6p</t>
+    <t xml:space="preserve">R_EX_g6p</t>
   </si>
   <si>
-    <t>R_EX_6pgc</t>
+    <t xml:space="preserve">R_EX_6pgc</t>
   </si>
   <si>
-    <t>R_EX_r5p</t>
+    <t xml:space="preserve">R_EX_r5p</t>
   </si>
   <si>
-    <t>R_EX_xu5p__D</t>
+    <t xml:space="preserve">R_EX_xu5p__D</t>
   </si>
   <si>
-    <t>R_EX_g3p</t>
+    <t xml:space="preserve">R_EX_g3p</t>
   </si>
   <si>
-    <t>R_EX_e4p</t>
+    <t xml:space="preserve">R_EX_e4p</t>
   </si>
   <si>
-    <t>R_EX_f6p</t>
+    <t xml:space="preserve">R_EX_f6p</t>
   </si>
   <si>
-    <t>R_EX_3pg</t>
+    <t xml:space="preserve">R_EX_3pg</t>
   </si>
   <si>
-    <t>ID</t>
+    <t xml:space="preserve">metabolite ID</t>
   </si>
   <si>
-    <t>Metabolite name</t>
+    <t xml:space="preserve">Metabolite name</t>
   </si>
   <si>
-    <t>balanced?</t>
+    <t xml:space="preserve">balanced?</t>
   </si>
   <si>
-    <t>active?</t>
+    <t xml:space="preserve">active?</t>
   </si>
   <si>
-    <t>fixed?</t>
+    <t xml:space="preserve">constant?</t>
   </si>
   <si>
-    <t>measured?</t>
+    <t xml:space="preserve">measured?</t>
   </si>
   <si>
-    <t>D-glucose extracellular</t>
+    <t xml:space="preserve">D-glucose extracellular</t>
   </si>
   <si>
-    <t>D-glucose periplasm</t>
+    <t xml:space="preserve">D-glucose periplasm</t>
   </si>
   <si>
-    <t>atp cytoplasm</t>
+    <t xml:space="preserve">atp cytoplasm</t>
   </si>
   <si>
-    <t>D-glucose cytoplasm</t>
+    <t xml:space="preserve">D-glucose cytoplasm</t>
   </si>
   <si>
-    <t>adp cytoplasm</t>
+    <t xml:space="preserve">adp cytoplasm</t>
   </si>
   <si>
-    <t>phosphate cytoplasm</t>
+    <t xml:space="preserve">phosphate cytoplasm</t>
   </si>
   <si>
-    <t>alpha D-glucose 6 phosphate cytoplasm</t>
+    <t xml:space="preserve">alpha D-glucose 6 phosphate cytoplasm</t>
   </si>
   <si>
-    <t>D-gluconate periplasm</t>
+    <t xml:space="preserve">D-gluconate periplasm</t>
   </si>
   <si>
-    <t>D-gluconate cytoplasm</t>
+    <t xml:space="preserve">D-gluconate cytoplasm</t>
   </si>
   <si>
-    <t>6-phospho-D-gluconate cytoplasm</t>
+    <t xml:space="preserve">6-phospho-D-gluconate cytoplasm</t>
   </si>
   <si>
-    <t>2-Dehydro-D-gluconate periplasm</t>
+    <t xml:space="preserve">2-Dehydro-D-gluconate periplasm</t>
   </si>
   <si>
-    <t>2-Dehydro-D-gluconate cytosol</t>
+    <t xml:space="preserve">2-Dehydro-D-gluconate cytosol</t>
   </si>
   <si>
-    <t>6-phospho-2-Dehydro-D-gluconate cytosol</t>
+    <t xml:space="preserve">6-phospho-2-Dehydro-D-gluconate cytosol</t>
   </si>
   <si>
-    <t>nad cytoplasm</t>
+    <t xml:space="preserve">nad cytoplasm</t>
   </si>
   <si>
-    <t>nadh cytoplasm</t>
+    <t xml:space="preserve">nadh cytoplasm</t>
   </si>
   <si>
-    <t>nadph cytoplasm</t>
+    <t xml:space="preserve">nadph cytoplasm</t>
   </si>
   <si>
-    <t>nadp cytoplasm</t>
+    <t xml:space="preserve">nadp cytoplasm</t>
   </si>
   <si>
-    <t>Ubiquinone-8</t>
+    <t xml:space="preserve">Ubiquinone-8</t>
   </si>
   <si>
-    <t>Ubiquinol-8</t>
+    <t xml:space="preserve">Ubiquinol-8</t>
   </si>
   <si>
-    <t>6-phospho D-glucono-1,5-lactone</t>
+    <t xml:space="preserve">6-phospho D-glucono-1,5-lactone</t>
   </si>
   <si>
-    <t>carbon dioxide</t>
+    <t xml:space="preserve">carbon dioxide</t>
   </si>
   <si>
-    <t>D-ribulose-5-phosphate cytoplasm</t>
+    <t xml:space="preserve">D-ribulose-5-phosphate cytoplasm</t>
   </si>
   <si>
-    <t>alpha-D-ribose-5-phosphate cytoplasm</t>
+    <t xml:space="preserve">alpha-D-ribose-5-phosphate cytoplasm</t>
   </si>
   <si>
-    <t>D-xylulose-5-phosphate cytoplasm</t>
+    <t xml:space="preserve">D-xylulose-5-phosphate cytoplasm</t>
   </si>
   <si>
-    <t>D-glyceraldehyde 3-phosphate cytoplasm</t>
+    <t xml:space="preserve">D-glyceraldehyde 3-phosphate cytoplasm</t>
   </si>
   <si>
-    <t>Sedoheptulose-7-phosphate cytoplasm</t>
+    <t xml:space="preserve">Sedoheptulose-7-phosphate cytoplasm</t>
   </si>
   <si>
-    <t>D-erythrose-4-phosphate cytoplasm</t>
+    <t xml:space="preserve">D-erythrose-4-phosphate cytoplasm</t>
   </si>
   <si>
-    <t>D-fructose-6-phosphate cytoplasm</t>
+    <t xml:space="preserve">D-fructose-6-phosphate cytoplasm</t>
   </si>
   <si>
-    <t>2-dehydro-3-deoxy-D-gluconate 6-phosphate cytoplasm</t>
+    <t xml:space="preserve">2-dehydro-3-deoxy-D-gluconate 6-phosphate cytoplasm</t>
   </si>
   <si>
-    <t>pyruvate cytoplasm</t>
+    <t xml:space="preserve">pyruvate cytoplasm</t>
   </si>
   <si>
-    <t>D-fructose-1,6-bisphosphate cytoplasm</t>
+    <t xml:space="preserve">D-fructose-1,6-bisphosphate cytoplasm</t>
   </si>
   <si>
-    <t>Dehydroxyacetone-phosphate cytoplasm</t>
+    <t xml:space="preserve">Dehydroxyacetone-phosphate cytoplasm</t>
   </si>
   <si>
-    <t>3-phospho-D-glyceroyl-phosphate cytoplasm</t>
+    <t xml:space="preserve">3-phospho-D-glyceroyl-phosphate cytoplasm</t>
   </si>
   <si>
-    <t>3-phospho-D-glycerate cytoplasm</t>
+    <t xml:space="preserve">3-phospho-D-glycerate cytoplasm</t>
   </si>
   <si>
-    <t>2-phospho-D-glycerate cytoplasm</t>
+    <t xml:space="preserve">2-phospho-D-glycerate cytoplasm</t>
   </si>
   <si>
-    <t>phosphoenolpyruvate cytoplasm</t>
+    <t xml:space="preserve">phosphoenolpyruvate cytoplasm</t>
   </si>
   <si>
-    <t>hydrogen peroxide cytoplasm</t>
+    <t xml:space="preserve">hydrogen peroxide cytoplasm</t>
   </si>
   <si>
-    <t>reduced glutathione</t>
+    <t xml:space="preserve">reduced glutathione</t>
   </si>
   <si>
-    <t>oxidized glutathione</t>
+    <t xml:space="preserve">oxidized glutathione</t>
   </si>
   <si>
-    <t>water</t>
+    <t xml:space="preserve">water</t>
   </si>
   <si>
-    <t>pyruvate extracellular</t>
+    <t xml:space="preserve">pyruvate extracellular</t>
   </si>
   <si>
-    <t>phosphoenolpyruvate extracellular</t>
+    <t xml:space="preserve">phosphoenolpyruvate extracellular</t>
   </si>
   <si>
-    <t>hydrogen peroxide extracellular</t>
+    <t xml:space="preserve">hydrogen peroxide extracellular</t>
   </si>
   <si>
-    <t>reaction name</t>
+    <t xml:space="preserve">reaction ID</t>
   </si>
   <si>
-    <t>transportRxn?</t>
+    <t xml:space="preserve">reaction name</t>
   </si>
   <si>
-    <t>modelled?</t>
+    <t xml:space="preserve">transport reaction?</t>
   </si>
   <si>
-    <t>isoenzymes</t>
+    <t xml:space="preserve">modelled?</t>
   </si>
   <si>
-    <t>Glucose transport via diffusion (extracellular to periplasm)</t>
+    <t xml:space="preserve">isoenzymes</t>
   </si>
   <si>
-    <t>D-glucose transport via ABC system (periplasm)</t>
+    <t xml:space="preserve">Glucose transport via diffusion (extracellular to periplasm)</t>
   </si>
   <si>
-    <t>Glucokinase</t>
+    <t xml:space="preserve">D-glucose transport via ABC system (periplasm)</t>
   </si>
   <si>
-    <t>D-gluconate transport via proton symport, reversible (periplasm)</t>
+    <t xml:space="preserve">Glucokinase</t>
   </si>
   <si>
-    <t>Gluconokinase</t>
+    <t xml:space="preserve">D-gluconate transport via proton symport, reversible (periplasm)</t>
   </si>
   <si>
-    <t>Ketogluconate transporter</t>
+    <t xml:space="preserve">Gluconokinase</t>
   </si>
   <si>
-    <t>dehydroglucokinase</t>
+    <t xml:space="preserve">Ketogluconate transporter</t>
   </si>
   <si>
-    <t>Phosphogluconate-2-dehydrogenase</t>
+    <t xml:space="preserve">dehydroglucokinase</t>
   </si>
   <si>
-    <t>Glucose dehydrogenase (ubiquinone-8 as acceptor) (periplasm)</t>
+    <t xml:space="preserve">Phosphogluconate-2-dehydrogenase</t>
   </si>
   <si>
-    <t>Gluconate-2-dehydrogenase periplasm</t>
+    <t xml:space="preserve">Glucose dehydrogenase (ubiquinone-8 as acceptor) (periplasm)</t>
   </si>
   <si>
-    <t>Glucose-6-phosphate dehydrogenase</t>
+    <t xml:space="preserve">Gluconate-2-dehydrogenase periplasm</t>
   </si>
   <si>
-    <t>G6PDH2</t>
+    <t xml:space="preserve">Glucose-6-phosphate dehydrogenase</t>
   </si>
   <si>
-    <t>6-Phosphogluconolactonase</t>
+    <t xml:space="preserve">G6PDH2</t>
   </si>
   <si>
-    <t>Phosphogluconate dehydrogenase</t>
+    <t xml:space="preserve">6-Phosphogluconolactonase</t>
   </si>
   <si>
-    <t>Ribose-5-phosphate isomerase</t>
+    <t xml:space="preserve">Phosphogluconate dehydrogenase</t>
   </si>
   <si>
-    <t>Ribulose 5-phosphate 3-epimerase</t>
+    <t xml:space="preserve">Ribose-5-phosphate isomerase</t>
   </si>
   <si>
-    <t>Transketolase 1</t>
+    <t xml:space="preserve">Ribulose 5-phosphate 3-epimerase</t>
   </si>
   <si>
-    <t>Transketolase 2</t>
+    <t xml:space="preserve">Transketolase 1</t>
   </si>
   <si>
-    <t>transaldolase</t>
+    <t xml:space="preserve">Transketolase 2</t>
   </si>
   <si>
-    <t>6-Phosphogluconate dehydratase</t>
+    <t xml:space="preserve">transaldolase</t>
   </si>
   <si>
-    <t>2-dehydro-3-deoxy-phosphogluconate aldolase</t>
+    <t xml:space="preserve">6-Phosphogluconate dehydratase</t>
   </si>
   <si>
-    <t>Glucose-6-phosphate-isomerase</t>
+    <t xml:space="preserve">2-dehydro-3-deoxy-phosphogluconate aldolase</t>
   </si>
   <si>
-    <t>Fructose-biphosphatase</t>
+    <t xml:space="preserve">Glucose-6-phosphate-isomerase</t>
   </si>
   <si>
-    <t>Fructose-biphosphate-aldolase</t>
+    <t xml:space="preserve">Fructose-biphosphatase</t>
   </si>
   <si>
-    <t>Triose phosphate isomerase</t>
+    <t xml:space="preserve">Fructose-biphosphate-aldolase</t>
   </si>
   <si>
-    <t>Glyceraldehyde-3-phosphate dehydrogenase</t>
+    <t xml:space="preserve">Triose phosphate isomerase</t>
   </si>
   <si>
-    <t>Phosphoglycerate kinase</t>
+    <t xml:space="preserve">Glyceraldehyde-3-phosphate dehydrogenase</t>
   </si>
   <si>
-    <t>Phosphoglycerate mutase</t>
+    <t xml:space="preserve">Phosphoglycerate kinase</t>
   </si>
   <si>
-    <t>Enolase</t>
+    <t xml:space="preserve">Phosphoglycerate mutase</t>
   </si>
   <si>
-    <t>Pyruvate kinase</t>
+    <t xml:space="preserve">Enolase</t>
   </si>
   <si>
-    <t>Glutathione peridoxase</t>
+    <t xml:space="preserve">Pyruvate kinase</t>
   </si>
   <si>
-    <t>Glutathione oxidoreductase</t>
+    <t xml:space="preserve">Glutathione peridoxase</t>
   </si>
   <si>
-    <t>atp and adp regeneration</t>
+    <t xml:space="preserve">Glutathione oxidoreductase</t>
   </si>
   <si>
-    <t>nad and nadh regeneration</t>
+    <t xml:space="preserve">atp and adp regeneration</t>
   </si>
   <si>
-    <t>nadp and nadph regeneration</t>
+    <t xml:space="preserve">nad and nadh regeneration</t>
   </si>
   <si>
-    <t>pyruvate exchange</t>
+    <t xml:space="preserve">nadp and nadph regeneration</t>
   </si>
   <si>
-    <t>phosphoenlopyruvate exchange</t>
+    <t xml:space="preserve">pyruvate exchange</t>
   </si>
   <si>
-    <t>peroxide exchange</t>
+    <t xml:space="preserve">phosphoenlopyruvate exchange</t>
   </si>
   <si>
-    <t>met</t>
+    <t xml:space="preserve">peroxide exchange</t>
   </si>
   <si>
-    <t>rxn</t>
+    <t xml:space="preserve">∆Gr'_min (kJ/mol)</t>
   </si>
   <si>
-    <t>∆Gr'_min (kJ/mol)</t>
+    <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
   </si>
   <si>
-    <t>∆Gr'_max (kJ/mol)</t>
+    <t xml:space="preserve">min (M)</t>
   </si>
   <si>
-    <t>min (M)</t>
+    <t xml:space="preserve">max (M)</t>
   </si>
   <si>
-    <t>max (M)</t>
+    <t xml:space="preserve">vref_mean (mmol/L/h)</t>
   </si>
   <si>
-    <t>Fluxes (umol/gdcw/h)</t>
+    <t xml:space="preserve">vref_std (mmol/L/h)</t>
   </si>
   <si>
-    <t>MBo10_mean</t>
+    <t xml:space="preserve">reaction/enzyme ID</t>
   </si>
   <si>
-    <t>MBo10_std</t>
+    <t xml:space="preserve">lower_bound</t>
   </si>
   <si>
-    <t>MBo10_mean2</t>
+    <t xml:space="preserve">mean</t>
   </si>
   <si>
-    <t>MBo10_std2</t>
+    <t xml:space="preserve">upper_bound</t>
   </si>
   <si>
-    <t>enzyme/rxn</t>
+    <t xml:space="preserve">kinetic mechanism</t>
   </si>
   <si>
-    <t>MBo10_LB2</t>
+    <t xml:space="preserve">substrate order</t>
   </si>
   <si>
-    <t>MBo10_meas2</t>
+    <t xml:space="preserve">product order</t>
   </si>
   <si>
-    <t>MBo10_UB2</t>
+    <t xml:space="preserve">promiscuous</t>
   </si>
   <si>
-    <t>reaction ID</t>
+    <t xml:space="preserve">inhibitors</t>
   </si>
   <si>
-    <t>kinetic mechanism</t>
+    <t xml:space="preserve">activators</t>
   </si>
   <si>
-    <t>substrate order</t>
+    <t xml:space="preserve">negative effectors</t>
   </si>
   <si>
-    <t>product order</t>
+    <t xml:space="preserve">positive effectors</t>
   </si>
   <si>
-    <t>promiscuous</t>
+    <t xml:space="preserve">allosteric</t>
   </si>
   <si>
-    <t>inhibitors</t>
+    <t xml:space="preserve">subunits</t>
   </si>
   <si>
-    <t>activators</t>
+    <t xml:space="preserve">mechanism_refs_type</t>
   </si>
   <si>
-    <t>negative effectors</t>
+    <t xml:space="preserve">mechanism_refs</t>
   </si>
   <si>
-    <t>positive effectors</t>
+    <t xml:space="preserve">inhibitors_refs_type</t>
   </si>
   <si>
-    <t>allosteric</t>
+    <t xml:space="preserve">inhibitors_refs</t>
   </si>
   <si>
-    <t>subunits</t>
+    <t xml:space="preserve">activators_refs_type</t>
   </si>
   <si>
-    <t>mechanism_refs_type</t>
+    <t xml:space="preserve">activators_refs</t>
   </si>
   <si>
-    <t>mechanism_refs</t>
+    <t xml:space="preserve">negative_effectors_refs_type</t>
   </si>
   <si>
-    <t>inhibitors_refs_type</t>
+    <t xml:space="preserve">negative_effectors_refs</t>
   </si>
   <si>
-    <t>inhibitors_refs</t>
+    <t xml:space="preserve">positive_effectors_refs_type</t>
   </si>
   <si>
-    <t>activators_refs_type</t>
+    <t xml:space="preserve">positive_effectors_refs</t>
   </si>
   <si>
-    <t>activators_refs</t>
+    <t xml:space="preserve">subunits_refs_type</t>
   </si>
   <si>
-    <t>negative_effectors_refs_type</t>
+    <t xml:space="preserve">subunits_refs</t>
   </si>
   <si>
-    <t>negative_effectors_refs</t>
+    <t xml:space="preserve">comments</t>
   </si>
   <si>
-    <t>positive_effectors_refs_type</t>
+    <t xml:space="preserve">diffusion</t>
   </si>
   <si>
-    <t>positive_effectors_refs</t>
+    <t xml:space="preserve">m_glc_D_e</t>
   </si>
   <si>
-    <t>subunits_refs_type</t>
+    <t xml:space="preserve">m_glc_D_p</t>
   </si>
   <si>
-    <t>subunits_refs</t>
+    <t xml:space="preserve">doi</t>
   </si>
   <si>
-    <t>comments</t>
+    <t xml:space="preserve">10.1093/nar/gkv1049</t>
   </si>
   <si>
-    <t>diffusion</t>
+    <t xml:space="preserve">diffusion setting subunits to 1</t>
   </si>
   <si>
-    <t>m_glc_D_e</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>m_glc_D_p</t>
+    <t xml:space="preserve">orderedBiTer</t>
   </si>
   <si>
-    <t>doi</t>
+    <t xml:space="preserve">m_glc_D_p m_atp_c</t>
   </si>
   <si>
-    <t>10.1093/nar/gkv1049</t>
+    <t xml:space="preserve">m_adp_c m_pi_c m_glc_D_c</t>
   </si>
   <si>
-    <t>diffusion setting subunits to 1</t>
+    <t xml:space="preserve">10.1146/annurev.biochem.73.011303.073626</t>
   </si>
   <si>
-    <t> </t>
+    <t xml:space="preserve">assumed subunits</t>
   </si>
   <si>
-    <t>orderedBiTer</t>
+    <t xml:space="preserve">same as Laia</t>
   </si>
   <si>
-    <t>m_glc_D_p m_atp_c</t>
+    <t xml:space="preserve">randomBiBi</t>
   </si>
   <si>
-    <t>m_adp_c m_pi_c m_glc_D_c</t>
+    <t xml:space="preserve">m_glc_D_e m_atp_c</t>
   </si>
   <si>
-    <t>10.1146/annurev.biochem.73.011303.073626</t>
+    <t xml:space="preserve">m_adp_c m_g6p_c</t>
   </si>
   <si>
-    <t>assumed subunits</t>
+    <t xml:space="preserve">10.1016/0003-9861(72)90354-2</t>
   </si>
   <si>
-    <t>same as Laia</t>
+    <t xml:space="preserve">looks like 1 subunit from metacyc</t>
   </si>
   <si>
-    <t>randomBiBi</t>
+    <t xml:space="preserve">Laia has 2</t>
   </si>
   <si>
-    <t>m_glc_D_e m_atp_c</t>
+    <t xml:space="preserve">uniUni</t>
   </si>
   <si>
-    <t>m_adp_c m_g6p_c</t>
+    <t xml:space="preserve">Data form E.coli, permease, modelled as massAction</t>
   </si>
   <si>
-    <t>10.1016/0003-9861(72)90354-2</t>
+    <t xml:space="preserve">m_glcn_c m_atp_c </t>
   </si>
   <si>
-    <t>looks like 1 subunit from metacyc</t>
+    <t xml:space="preserve">m_adp_c m_6pgc_c</t>
   </si>
   <si>
-    <t>Laia has 2</t>
+    <t xml:space="preserve">PMID</t>
   </si>
   <si>
-    <t>uniUni</t>
+    <t xml:space="preserve">2dhglcn_p</t>
   </si>
   <si>
-    <t>Data form E.coli, permease, modelled as massAction</t>
+    <t xml:space="preserve">permease,modelled as massAction</t>
   </si>
   <si>
-    <t>m_glcn_c m_atp_c </t>
+    <t xml:space="preserve">orderedBiBi</t>
   </si>
   <si>
-    <t>m_adp_c m_6pgc_c</t>
+    <t xml:space="preserve">m_atp_c  m_2dhglcn_c</t>
   </si>
   <si>
-    <t>PMID</t>
+    <t xml:space="preserve">m_6p2dhglcn_c m_adp_c</t>
   </si>
   <si>
-    <t>2dhglcn_p</t>
+    <t xml:space="preserve">Laia has 1 and says no data</t>
   </si>
   <si>
-    <t>permease,modelled as massAction</t>
+    <t xml:space="preserve">NO DATA</t>
   </si>
   <si>
-    <t>orderedBiBi</t>
+    <t xml:space="preserve">PGLCNDH</t>
   </si>
   <si>
-    <t>m_atp_c  m_2dhglcn_c</t>
+    <t xml:space="preserve">m_nad_c m_6p2dhglcn_c</t>
   </si>
   <si>
-    <t>m_6p2dhglcn_c m_adp_c</t>
+    <t xml:space="preserve">m_6pgc_c m_nadh_c</t>
   </si>
   <si>
-    <t>Laia has 1 and says no data</t>
+    <t xml:space="preserve">R_PGLCNDH_NAD R_PGLCNDH_NADP</t>
   </si>
   <si>
-    <t>NO DATA</t>
+    <t xml:space="preserve">m_nadp_c m_6p2dhglcn_c</t>
   </si>
   <si>
-    <t>PGLCNDH</t>
+    <t xml:space="preserve">m_6pgc_c m_nadph_c</t>
   </si>
   <si>
-    <t>m_nad_c m_6p2dhglcn_c</t>
+    <t xml:space="preserve">Laia has 4</t>
   </si>
   <si>
-    <t>m_6pgc_c m_nadh_c</t>
+    <t xml:space="preserve">pingPongBiBi</t>
   </si>
   <si>
-    <t>R_PGLCNDH_NAD R_PGLCNDH_NADP</t>
+    <t xml:space="preserve">m_glc_D_p m_q8_c</t>
   </si>
   <si>
-    <t>m_nadp_c m_6p2dhglcn_c</t>
+    <t xml:space="preserve">m_glcn_p m_q8h2_c</t>
   </si>
   <si>
-    <t>m_6pgc_c m_nadph_c</t>
+    <t xml:space="preserve">10.1021/ja204637d 10.1021/bi00368a031</t>
   </si>
   <si>
-    <t>Laia has 4</t>
+    <t xml:space="preserve">10.1016/j.ijbiomac.2018.06.097</t>
   </si>
   <si>
-    <t>pingPongBiBi</t>
+    <t xml:space="preserve">putida 1 subunit, no inhibition in monomeric enzime, other data from Acinetobacter calcoaceticus--&gt; glucose has competitive inhibition in acinetobacter (2 subunits)</t>
   </si>
   <si>
-    <t>m_glc_D_p m_q8_c</t>
+    <t xml:space="preserve">m_q8_c m_glcn_p</t>
   </si>
   <si>
-    <t>m_glcn_p m_q8h2_c</t>
+    <t xml:space="preserve">m_2dhglcn_p m_q8h2_c</t>
   </si>
   <si>
-    <t>10.1021/ja204637d 10.1021/bi00368a031</t>
+    <t xml:space="preserve">info from pseudomonas fluorescens. Only one catalytic unit, but 3 subunits in overall</t>
   </si>
   <si>
-    <t>10.1016/j.ijbiomac.2018.06.097</t>
+    <t xml:space="preserve">Barely any info, assuming orderedBiBi mech</t>
   </si>
   <si>
-    <t>putida 1 subunit, no inhibition in monomeric enzime, other data from Acinetobacter calcoaceticus--&gt; glucose has competitive inhibition in acinetobacter (2 subunits)</t>
+    <t xml:space="preserve">m_nadp_c m_g6p_c</t>
   </si>
   <si>
-    <t>m_q8_c m_glcn_p</t>
+    <t xml:space="preserve">m_6pgl_c m_nadph_c</t>
   </si>
   <si>
-    <t>m_2dhglcn_p m_q8h2_c</t>
+    <t xml:space="preserve">m_nadph_c m_nadh_c</t>
   </si>
   <si>
-    <t>info from pseudomonas fluorescens. Only one catalytic unit, but 3 subunits in overall</t>
+    <t xml:space="preserve">10.1016/0003-9861(83)90546-5</t>
   </si>
   <si>
-    <t>Barely any info, assuming orderedBiBi mech</t>
+    <t xml:space="preserve">PMID PMID PMID; PMID PMID PMID</t>
   </si>
   <si>
-    <t>m_nadp_c m_g6p_c</t>
+    <t xml:space="preserve">468836 4154934 7350909; 468836 4154934 7350909</t>
   </si>
   <si>
-    <t>m_6pgl_c m_nadph_c</t>
+    <t xml:space="preserve">PMID PMID PMID PMID</t>
   </si>
   <si>
-    <t>m_nadph_c m_nadh_c</t>
+    <t xml:space="preserve">1257 468836 4154934 7350909</t>
   </si>
   <si>
-    <t>10.1016/0003-9861(83)90546-5</t>
+    <t xml:space="preserve">assumed mechansim</t>
   </si>
   <si>
-    <t>PMID PMID PMID; PMID PMID PMID</t>
+    <t xml:space="preserve">G6PDH2CompInhib</t>
   </si>
   <si>
-    <t>468836 4154934 7350909; 468836 4154934 7350909</t>
+    <t xml:space="preserve">m_nad_c m_g6p_c</t>
   </si>
   <si>
-    <t>PMID PMID PMID PMID</t>
+    <t xml:space="preserve">m_6pgl_c m_nadh_c</t>
   </si>
   <si>
-    <t>1257 468836 4154934 7350909</t>
+    <t xml:space="preserve">R_G6PDH2_NAD R_G6PDH2_NADH</t>
   </si>
   <si>
-    <t>assumed mechansim</t>
+    <t xml:space="preserve">m_nadph_c m_nadh_c </t>
   </si>
   <si>
-    <t>G6PDH2CompInhib</t>
+    <t xml:space="preserve">PGL</t>
   </si>
   <si>
-    <t>m_nad_c m_g6p_c</t>
+    <t xml:space="preserve">Laia has 1</t>
   </si>
   <si>
-    <t>m_6pgl_c m_nadh_c</t>
+    <t xml:space="preserve">GNDCompInhib</t>
   </si>
   <si>
-    <t>R_G6PDH2_NAD R_G6PDH2_NADH</t>
+    <t xml:space="preserve">m_6pgc_c m_nad_c</t>
   </si>
   <si>
-    <t>m_nadph_c m_nadh_c </t>
+    <t xml:space="preserve">m_nadh_c m_ru5p_D_c</t>
   </si>
   <si>
-    <t>PGL</t>
+    <t xml:space="preserve">R_GND_nad R_GND_nadp</t>
   </si>
   <si>
-    <t>Laia has 1</t>
+    <t xml:space="preserve">assumed subunits, ecocyc says 2</t>
   </si>
   <si>
-    <t>GNDCompInhib</t>
+    <t xml:space="preserve">m_6pgc_c m_nadp_c </t>
   </si>
   <si>
-    <t>m_6pgc_c m_nad_c</t>
+    <t xml:space="preserve">m_nadph_c m_ru5p_D_c</t>
   </si>
   <si>
-    <t>m_nadh_c m_ru5p_D_c</t>
+    <t xml:space="preserve">m_ru5p_D_c</t>
   </si>
   <si>
-    <t>R_GND_nad R_GND_nadp</t>
+    <t xml:space="preserve">link PMID</t>
   </si>
   <si>
-    <t>assumed subunits, ecocyc says 2</t>
+    <t xml:space="preserve">https://www.rcsb.org/structure/4x84 12517338</t>
   </si>
   <si>
-    <t>m_6pgc_c m_nadp_c </t>
+    <t xml:space="preserve">m_xu5p_D_c</t>
   </si>
   <si>
-    <t>m_nadph_c m_ru5p_D_c</t>
+    <t xml:space="preserve">DOI</t>
   </si>
   <si>
-    <t>m_ru5p_D_c</t>
+    <t xml:space="preserve">10.1093/nar/gky1048</t>
   </si>
   <si>
-    <t>link PMID</t>
+    <t xml:space="preserve">m_r5p_c m_xu5p_D_c</t>
   </si>
   <si>
-    <t>https://www.rcsb.org/structure/4x84 12517338</t>
+    <t xml:space="preserve">m_g3p_c m_s7p_c</t>
   </si>
   <si>
-    <t>m_xu5p_D_c</t>
+    <t xml:space="preserve">Link PMID</t>
   </si>
   <si>
-    <t>DOI</t>
+    <t xml:space="preserve">https://www.rcsb.org/structure/4XEU 17914867</t>
   </si>
   <si>
-    <t>10.1093/nar/gky1048</t>
+    <t xml:space="preserve">m_xu5p_D_c m_e4p_c</t>
   </si>
   <si>
-    <t>m_r5p_c m_xu5p_D_c</t>
+    <t xml:space="preserve">m_g3p_c m_f6p_c</t>
   </si>
   <si>
-    <t>m_g3p_c m_s7p_c</t>
+    <t xml:space="preserve">assumed subunits, ecocyc says 1</t>
   </si>
   <si>
-    <t>Link PMID</t>
+    <t xml:space="preserve">m_s7p_c m_g3p_c</t>
   </si>
   <si>
-    <t>https://www.rcsb.org/structure/4XEU 17914867</t>
+    <t xml:space="preserve">m_e4pc_m_f6p_c</t>
   </si>
   <si>
-    <t>m_xu5p_D_c m_e4p_c</t>
+    <t xml:space="preserve">DOI PMID</t>
   </si>
   <si>
-    <t>m_g3p_c m_f6p_c</t>
+    <t xml:space="preserve">10.1093/nar/gky1048 8805555</t>
   </si>
   <si>
-    <t>assumed subunits, ecocyc says 1</t>
+    <t xml:space="preserve">same as in e. coli and some other organisms in brenda</t>
   </si>
   <si>
-    <t>m_s7p_c m_g3p_c</t>
+    <t xml:space="preserve">uniUniActivTwoTracks</t>
   </si>
   <si>
-    <t>m_e4pc_m_f6p_c</t>
+    <t xml:space="preserve">randomUniBi</t>
   </si>
   <si>
-    <t>DOI PMID</t>
+    <t xml:space="preserve">m_g3p_c m_pyr_c</t>
   </si>
   <si>
-    <t>10.1093/nar/gky1048 8805555</t>
+    <t xml:space="preserve">10.1016/S1874-6047(08)60452-7</t>
   </si>
   <si>
-    <t>same as in e. coli and some other organisms in brenda</t>
+    <t xml:space="preserve">assumed subunits, ecocyc says 3</t>
   </si>
   <si>
-    <t>uniUniActivTwoTracks</t>
+    <t xml:space="preserve">Laia has 3</t>
   </si>
   <si>
-    <t>randomUniBi</t>
+    <t xml:space="preserve">link</t>
   </si>
   <si>
-    <t>m_g3p_c m_pyr_c</t>
+    <t xml:space="preserve">https://swissmodel.expasy.org/repository/uniprot/Q88DW7?csm=06BDB4FD62122707</t>
   </si>
   <si>
-    <t>10.1016/S1874-6047(08)60452-7</t>
+    <t xml:space="preserve">Laia has 2 and says Data from E.coli</t>
   </si>
   <si>
-    <t>assumed subunits, ecocyc says 3</t>
+    <t xml:space="preserve">orderedUniBi</t>
   </si>
   <si>
-    <t>Laia has 3</t>
+    <t xml:space="preserve">m_f6p_c m_pi_c</t>
   </si>
   <si>
-    <t>link</t>
+    <t xml:space="preserve">https://swissmodel.expasy.org/repository/uniprot/A0A179SBB4?csm=0FE090106D1DEB39</t>
   </si>
   <si>
-    <t>https://swissmodel.expasy.org/repository/uniprot/Q88DW7?csm=06BDB4FD62122707</t>
+    <t xml:space="preserve">assumed subunits, ecocyc says 4 for fbp1 and 2 for fbp2</t>
   </si>
   <si>
-    <t>Laia has 2 and says Data from E.coli</t>
+    <t xml:space="preserve">Laia has 4  and says Data from E.coli</t>
   </si>
   <si>
-    <t>orderedUniBi</t>
+    <t xml:space="preserve">orderedBiUni</t>
   </si>
   <si>
-    <t>m_f6p_c m_pi_c</t>
+    <t xml:space="preserve">m_dhap_c m_g3p_c</t>
   </si>
   <si>
-    <t>https://swissmodel.expasy.org/repository/uniprot/A0A179SBB4?csm=0FE090106D1DEB39</t>
+    <t xml:space="preserve">doi PMID PMID</t>
   </si>
   <si>
-    <t>assumed subunits, ecocyc says 4 for fbp1 and 2 for fbp2</t>
+    <t xml:space="preserve">10.1016/0006-3002(58)90242-7 10712619 2649077</t>
   </si>
   <si>
-    <t>Laia has 4  and says Data from E.coli</t>
+    <t xml:space="preserve">10.1016/j.pep.2011.06.020</t>
   </si>
   <si>
-    <t>orderedBiUni</t>
+    <t xml:space="preserve">assumed subunits, ecocyc says 10 for fba1 and 2 for fba2</t>
   </si>
   <si>
-    <t>m_dhap_c m_g3p_c</t>
+    <t xml:space="preserve">Laia has 4 and says data from p.aeuroginosa</t>
   </si>
   <si>
-    <t>doi PMID PMID</t>
+    <t xml:space="preserve">10.1007/s00018-010-0473-9</t>
   </si>
   <si>
-    <t>10.1016/0006-3002(58)90242-7 10712619 2649077</t>
+    <t xml:space="preserve">orderedTerBi</t>
   </si>
   <si>
-    <t>10.1016/j.pep.2011.06.020</t>
+    <t xml:space="preserve">m_nad_c m_g3p_c m_pi_c</t>
   </si>
   <si>
-    <t>assumed subunits, ecocyc says 10 for fba1 and 2 for fba2</t>
+    <t xml:space="preserve">m_13dpg_c m_nadh_c</t>
   </si>
   <si>
-    <t>Laia has 4 and says data from p.aeuroginosa</t>
+    <t xml:space="preserve">assumed subunits, ecocyc says 24</t>
   </si>
   <si>
-    <t>10.1007/s00018-010-0473-9</t>
+    <t xml:space="preserve">m_adp_c m_13dpg_c</t>
   </si>
   <si>
-    <t>orderedTerBi</t>
+    <t xml:space="preserve">m_3pg_c m_atp_c</t>
   </si>
   <si>
-    <t>m_nad_c m_g3p_c m_pi_c</t>
+    <t xml:space="preserve">10.1074/jbc.275.15.11147</t>
   </si>
   <si>
-    <t>m_13dpg_c m_nadh_c</t>
+    <t xml:space="preserve">PMID PMID</t>
   </si>
   <si>
-    <t>assumed subunits, ecocyc says 24</t>
+    <t xml:space="preserve">17085493 10437801</t>
   </si>
   <si>
-    <t>m_adp_c m_13dpg_c</t>
+    <t xml:space="preserve">assumed subunits, ecocyc says 2 for 23dpg-dependent and 1 for independent</t>
   </si>
   <si>
-    <t>m_3pg_c m_atp_c</t>
+    <t xml:space="preserve">Laia has 1 and says Data from Bacillus</t>
   </si>
   <si>
-    <t>10.1074/jbc.275.15.11147</t>
+    <t xml:space="preserve">not much data out there</t>
   </si>
   <si>
-    <t>PMID PMID</t>
+    <t xml:space="preserve">Laia has 2 and says Data from Saccharomyces</t>
   </si>
   <si>
-    <t>17085493 10437801</t>
+    <t xml:space="preserve">m_adp_c m_pep_c</t>
   </si>
   <si>
-    <t>assumed subunits, ecocyc says 2 for 23dpg-dependent and 1 for independent</t>
+    <t xml:space="preserve">m_atp_c m_pyr_c</t>
   </si>
   <si>
-    <t>Laia has 1 and says Data from Bacillus</t>
+    <t xml:space="preserve">m_2ddg6p_c m_r5p_c m_f6p_c</t>
   </si>
   <si>
-    <t>not much data out there</t>
+    <t xml:space="preserve">10.1111/j.0022-3646.1992.00472.x</t>
   </si>
   <si>
-    <t>Laia has 2 and says Data from Saccharomyces</t>
+    <t xml:space="preserve">PMID PMID PMID</t>
   </si>
   <si>
-    <t>m_adp_c m_pep_c</t>
+    <t xml:space="preserve">468836 468836 468836</t>
   </si>
   <si>
-    <t>m_atp_c m_pyr_c</t>
+    <t xml:space="preserve">assumed subunits, ecocyc says 4</t>
   </si>
   <si>
-    <t>m_2ddg6p_c m_r5p_c m_f6p_c</t>
+    <t xml:space="preserve">orderedTerUni</t>
   </si>
   <si>
-    <t>10.1111/j.0022-3646.1992.00472.x</t>
+    <t xml:space="preserve">m_h2o2_c m_gthrd_c m_gthrd_c</t>
   </si>
   <si>
-    <t>PMID PMID PMID</t>
+    <t xml:space="preserve">10.1016/j.bbagen.2012.09.018</t>
   </si>
   <si>
-    <t>468836 468836 468836</t>
+    <t xml:space="preserve">doi doi</t>
   </si>
   <si>
-    <t>assumed subunits, ecocyc says 4</t>
+    <t xml:space="preserve">10.1016/j.bbagen.2012.09.018 10.1093/emboj/cdf670</t>
   </si>
   <si>
-    <t>orderedTerUni</t>
+    <t xml:space="preserve">pingPongUniUniUniBi</t>
   </si>
   <si>
-    <t>m_h2o2_c m_gthrd_c m_gthrd_c</t>
+    <t xml:space="preserve">m_nadph_c m_gthox_c</t>
   </si>
   <si>
-    <t>10.1016/j.bbagen.2012.09.018</t>
+    <t xml:space="preserve">m_nadp_c m_gthrd_c m_gthrd_c</t>
   </si>
   <si>
-    <t>doi doi</t>
+    <t xml:space="preserve">massAction</t>
   </si>
   <si>
-    <t>10.1016/j.bbagen.2012.09.018 10.1093/emboj/cdf670</t>
-  </si>
-  <si>
-    <t>pingPongUniUniUniBi</t>
-  </si>
-  <si>
-    <t>m_nadph_c m_gthox_c</t>
-  </si>
-  <si>
-    <t>m_nadp_c m_gthrd_c m_gthrd_c</t>
-  </si>
-  <si>
-    <t>massAction</t>
-  </si>
-  <si>
-    <t>massAction setting subunits to 1</t>
+    <t xml:space="preserve">massAction setting subunits to 1</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1191,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -1344,13 +1329,13 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1459,7 +1444,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1472,34 +1457,1053 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:AMJ50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="2" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="2" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>219</v>
-      </c>
+      <c r="D1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
+      <c r="L1" s="0"/>
+      <c r="M1" s="0"/>
+      <c r="N1" s="0"/>
+      <c r="O1" s="0"/>
+      <c r="P1" s="0"/>
+      <c r="Q1" s="0"/>
+      <c r="R1" s="0"/>
+      <c r="S1" s="0"/>
+      <c r="T1" s="0"/>
+      <c r="U1" s="0"/>
+      <c r="V1" s="0"/>
+      <c r="W1" s="0"/>
+      <c r="X1" s="0"/>
+      <c r="Y1" s="0"/>
+      <c r="Z1" s="0"/>
+      <c r="AA1" s="0"/>
+      <c r="AB1" s="0"/>
+      <c r="AC1" s="0"/>
+      <c r="AD1" s="0"/>
+      <c r="AE1" s="0"/>
+      <c r="AF1" s="0"/>
+      <c r="AG1" s="0"/>
+      <c r="AH1" s="0"/>
+      <c r="AI1" s="0"/>
+      <c r="AJ1" s="0"/>
+      <c r="AK1" s="0"/>
+      <c r="AL1" s="0"/>
+      <c r="AM1" s="0"/>
+      <c r="AN1" s="0"/>
+      <c r="AO1" s="0"/>
+      <c r="AP1" s="0"/>
+      <c r="AQ1" s="0"/>
+      <c r="AR1" s="0"/>
+      <c r="AS1" s="0"/>
+      <c r="AT1" s="0"/>
+      <c r="AU1" s="0"/>
+      <c r="AV1" s="0"/>
+      <c r="AW1" s="0"/>
+      <c r="AX1" s="0"/>
+      <c r="AY1" s="0"/>
+      <c r="AZ1" s="0"/>
+      <c r="BA1" s="0"/>
+      <c r="BB1" s="0"/>
+      <c r="BC1" s="0"/>
+      <c r="BD1" s="0"/>
+      <c r="BE1" s="0"/>
+      <c r="BF1" s="0"/>
+      <c r="BG1" s="0"/>
+      <c r="BH1" s="0"/>
+      <c r="BI1" s="0"/>
+      <c r="BJ1" s="0"/>
+      <c r="BK1" s="0"/>
+      <c r="BL1" s="0"/>
+      <c r="BM1" s="0"/>
+      <c r="BN1" s="0"/>
+      <c r="BO1" s="0"/>
+      <c r="BP1" s="0"/>
+      <c r="BQ1" s="0"/>
+      <c r="BR1" s="0"/>
+      <c r="BS1" s="0"/>
+      <c r="BT1" s="0"/>
+      <c r="BU1" s="0"/>
+      <c r="BV1" s="0"/>
+      <c r="BW1" s="0"/>
+      <c r="BX1" s="0"/>
+      <c r="BY1" s="0"/>
+      <c r="BZ1" s="0"/>
+      <c r="CA1" s="0"/>
+      <c r="CB1" s="0"/>
+      <c r="CC1" s="0"/>
+      <c r="CD1" s="0"/>
+      <c r="CE1" s="0"/>
+      <c r="CF1" s="0"/>
+      <c r="CG1" s="0"/>
+      <c r="CH1" s="0"/>
+      <c r="CI1" s="0"/>
+      <c r="CJ1" s="0"/>
+      <c r="CK1" s="0"/>
+      <c r="CL1" s="0"/>
+      <c r="CM1" s="0"/>
+      <c r="CN1" s="0"/>
+      <c r="CO1" s="0"/>
+      <c r="CP1" s="0"/>
+      <c r="CQ1" s="0"/>
+      <c r="CR1" s="0"/>
+      <c r="CS1" s="0"/>
+      <c r="CT1" s="0"/>
+      <c r="CU1" s="0"/>
+      <c r="CV1" s="0"/>
+      <c r="CW1" s="0"/>
+      <c r="CX1" s="0"/>
+      <c r="CY1" s="0"/>
+      <c r="CZ1" s="0"/>
+      <c r="DA1" s="0"/>
+      <c r="DB1" s="0"/>
+      <c r="DC1" s="0"/>
+      <c r="DD1" s="0"/>
+      <c r="DE1" s="0"/>
+      <c r="DF1" s="0"/>
+      <c r="DG1" s="0"/>
+      <c r="DH1" s="0"/>
+      <c r="DI1" s="0"/>
+      <c r="DJ1" s="0"/>
+      <c r="DK1" s="0"/>
+      <c r="DL1" s="0"/>
+      <c r="DM1" s="0"/>
+      <c r="DN1" s="0"/>
+      <c r="DO1" s="0"/>
+      <c r="DP1" s="0"/>
+      <c r="DQ1" s="0"/>
+      <c r="DR1" s="0"/>
+      <c r="DS1" s="0"/>
+      <c r="DT1" s="0"/>
+      <c r="DU1" s="0"/>
+      <c r="DV1" s="0"/>
+      <c r="DW1" s="0"/>
+      <c r="DX1" s="0"/>
+      <c r="DY1" s="0"/>
+      <c r="DZ1" s="0"/>
+      <c r="EA1" s="0"/>
+      <c r="EB1" s="0"/>
+      <c r="EC1" s="0"/>
+      <c r="ED1" s="0"/>
+      <c r="EE1" s="0"/>
+      <c r="EF1" s="0"/>
+      <c r="EG1" s="0"/>
+      <c r="EH1" s="0"/>
+      <c r="EI1" s="0"/>
+      <c r="EJ1" s="0"/>
+      <c r="EK1" s="0"/>
+      <c r="EL1" s="0"/>
+      <c r="EM1" s="0"/>
+      <c r="EN1" s="0"/>
+      <c r="EO1" s="0"/>
+      <c r="EP1" s="0"/>
+      <c r="EQ1" s="0"/>
+      <c r="ER1" s="0"/>
+      <c r="ES1" s="0"/>
+      <c r="ET1" s="0"/>
+      <c r="EU1" s="0"/>
+      <c r="EV1" s="0"/>
+      <c r="EW1" s="0"/>
+      <c r="EX1" s="0"/>
+      <c r="EY1" s="0"/>
+      <c r="EZ1" s="0"/>
+      <c r="FA1" s="0"/>
+      <c r="FB1" s="0"/>
+      <c r="FC1" s="0"/>
+      <c r="FD1" s="0"/>
+      <c r="FE1" s="0"/>
+      <c r="FF1" s="0"/>
+      <c r="FG1" s="0"/>
+      <c r="FH1" s="0"/>
+      <c r="FI1" s="0"/>
+      <c r="FJ1" s="0"/>
+      <c r="FK1" s="0"/>
+      <c r="FL1" s="0"/>
+      <c r="FM1" s="0"/>
+      <c r="FN1" s="0"/>
+      <c r="FO1" s="0"/>
+      <c r="FP1" s="0"/>
+      <c r="FQ1" s="0"/>
+      <c r="FR1" s="0"/>
+      <c r="FS1" s="0"/>
+      <c r="FT1" s="0"/>
+      <c r="FU1" s="0"/>
+      <c r="FV1" s="0"/>
+      <c r="FW1" s="0"/>
+      <c r="FX1" s="0"/>
+      <c r="FY1" s="0"/>
+      <c r="FZ1" s="0"/>
+      <c r="GA1" s="0"/>
+      <c r="GB1" s="0"/>
+      <c r="GC1" s="0"/>
+      <c r="GD1" s="0"/>
+      <c r="GE1" s="0"/>
+      <c r="GF1" s="0"/>
+      <c r="GG1" s="0"/>
+      <c r="GH1" s="0"/>
+      <c r="GI1" s="0"/>
+      <c r="GJ1" s="0"/>
+      <c r="GK1" s="0"/>
+      <c r="GL1" s="0"/>
+      <c r="GM1" s="0"/>
+      <c r="GN1" s="0"/>
+      <c r="GO1" s="0"/>
+      <c r="GP1" s="0"/>
+      <c r="GQ1" s="0"/>
+      <c r="GR1" s="0"/>
+      <c r="GS1" s="0"/>
+      <c r="GT1" s="0"/>
+      <c r="GU1" s="0"/>
+      <c r="GV1" s="0"/>
+      <c r="GW1" s="0"/>
+      <c r="GX1" s="0"/>
+      <c r="GY1" s="0"/>
+      <c r="GZ1" s="0"/>
+      <c r="HA1" s="0"/>
+      <c r="HB1" s="0"/>
+      <c r="HC1" s="0"/>
+      <c r="HD1" s="0"/>
+      <c r="HE1" s="0"/>
+      <c r="HF1" s="0"/>
+      <c r="HG1" s="0"/>
+      <c r="HH1" s="0"/>
+      <c r="HI1" s="0"/>
+      <c r="HJ1" s="0"/>
+      <c r="HK1" s="0"/>
+      <c r="HL1" s="0"/>
+      <c r="HM1" s="0"/>
+      <c r="HN1" s="0"/>
+      <c r="HO1" s="0"/>
+      <c r="HP1" s="0"/>
+      <c r="HQ1" s="0"/>
+      <c r="HR1" s="0"/>
+      <c r="HS1" s="0"/>
+      <c r="HT1" s="0"/>
+      <c r="HU1" s="0"/>
+      <c r="HV1" s="0"/>
+      <c r="HW1" s="0"/>
+      <c r="HX1" s="0"/>
+      <c r="HY1" s="0"/>
+      <c r="HZ1" s="0"/>
+      <c r="IA1" s="0"/>
+      <c r="IB1" s="0"/>
+      <c r="IC1" s="0"/>
+      <c r="ID1" s="0"/>
+      <c r="IE1" s="0"/>
+      <c r="IF1" s="0"/>
+      <c r="IG1" s="0"/>
+      <c r="IH1" s="0"/>
+      <c r="II1" s="0"/>
+      <c r="IJ1" s="0"/>
+      <c r="IK1" s="0"/>
+      <c r="IL1" s="0"/>
+      <c r="IM1" s="0"/>
+      <c r="IN1" s="0"/>
+      <c r="IO1" s="0"/>
+      <c r="IP1" s="0"/>
+      <c r="IQ1" s="0"/>
+      <c r="IR1" s="0"/>
+      <c r="IS1" s="0"/>
+      <c r="IT1" s="0"/>
+      <c r="IU1" s="0"/>
+      <c r="IV1" s="0"/>
+      <c r="IW1" s="0"/>
+      <c r="IX1" s="0"/>
+      <c r="IY1" s="0"/>
+      <c r="IZ1" s="0"/>
+      <c r="JA1" s="0"/>
+      <c r="JB1" s="0"/>
+      <c r="JC1" s="0"/>
+      <c r="JD1" s="0"/>
+      <c r="JE1" s="0"/>
+      <c r="JF1" s="0"/>
+      <c r="JG1" s="0"/>
+      <c r="JH1" s="0"/>
+      <c r="JI1" s="0"/>
+      <c r="JJ1" s="0"/>
+      <c r="JK1" s="0"/>
+      <c r="JL1" s="0"/>
+      <c r="JM1" s="0"/>
+      <c r="JN1" s="0"/>
+      <c r="JO1" s="0"/>
+      <c r="JP1" s="0"/>
+      <c r="JQ1" s="0"/>
+      <c r="JR1" s="0"/>
+      <c r="JS1" s="0"/>
+      <c r="JT1" s="0"/>
+      <c r="JU1" s="0"/>
+      <c r="JV1" s="0"/>
+      <c r="JW1" s="0"/>
+      <c r="JX1" s="0"/>
+      <c r="JY1" s="0"/>
+      <c r="JZ1" s="0"/>
+      <c r="KA1" s="0"/>
+      <c r="KB1" s="0"/>
+      <c r="KC1" s="0"/>
+      <c r="KD1" s="0"/>
+      <c r="KE1" s="0"/>
+      <c r="KF1" s="0"/>
+      <c r="KG1" s="0"/>
+      <c r="KH1" s="0"/>
+      <c r="KI1" s="0"/>
+      <c r="KJ1" s="0"/>
+      <c r="KK1" s="0"/>
+      <c r="KL1" s="0"/>
+      <c r="KM1" s="0"/>
+      <c r="KN1" s="0"/>
+      <c r="KO1" s="0"/>
+      <c r="KP1" s="0"/>
+      <c r="KQ1" s="0"/>
+      <c r="KR1" s="0"/>
+      <c r="KS1" s="0"/>
+      <c r="KT1" s="0"/>
+      <c r="KU1" s="0"/>
+      <c r="KV1" s="0"/>
+      <c r="KW1" s="0"/>
+      <c r="KX1" s="0"/>
+      <c r="KY1" s="0"/>
+      <c r="KZ1" s="0"/>
+      <c r="LA1" s="0"/>
+      <c r="LB1" s="0"/>
+      <c r="LC1" s="0"/>
+      <c r="LD1" s="0"/>
+      <c r="LE1" s="0"/>
+      <c r="LF1" s="0"/>
+      <c r="LG1" s="0"/>
+      <c r="LH1" s="0"/>
+      <c r="LI1" s="0"/>
+      <c r="LJ1" s="0"/>
+      <c r="LK1" s="0"/>
+      <c r="LL1" s="0"/>
+      <c r="LM1" s="0"/>
+      <c r="LN1" s="0"/>
+      <c r="LO1" s="0"/>
+      <c r="LP1" s="0"/>
+      <c r="LQ1" s="0"/>
+      <c r="LR1" s="0"/>
+      <c r="LS1" s="0"/>
+      <c r="LT1" s="0"/>
+      <c r="LU1" s="0"/>
+      <c r="LV1" s="0"/>
+      <c r="LW1" s="0"/>
+      <c r="LX1" s="0"/>
+      <c r="LY1" s="0"/>
+      <c r="LZ1" s="0"/>
+      <c r="MA1" s="0"/>
+      <c r="MB1" s="0"/>
+      <c r="MC1" s="0"/>
+      <c r="MD1" s="0"/>
+      <c r="ME1" s="0"/>
+      <c r="MF1" s="0"/>
+      <c r="MG1" s="0"/>
+      <c r="MH1" s="0"/>
+      <c r="MI1" s="0"/>
+      <c r="MJ1" s="0"/>
+      <c r="MK1" s="0"/>
+      <c r="ML1" s="0"/>
+      <c r="MM1" s="0"/>
+      <c r="MN1" s="0"/>
+      <c r="MO1" s="0"/>
+      <c r="MP1" s="0"/>
+      <c r="MQ1" s="0"/>
+      <c r="MR1" s="0"/>
+      <c r="MS1" s="0"/>
+      <c r="MT1" s="0"/>
+      <c r="MU1" s="0"/>
+      <c r="MV1" s="0"/>
+      <c r="MW1" s="0"/>
+      <c r="MX1" s="0"/>
+      <c r="MY1" s="0"/>
+      <c r="MZ1" s="0"/>
+      <c r="NA1" s="0"/>
+      <c r="NB1" s="0"/>
+      <c r="NC1" s="0"/>
+      <c r="ND1" s="0"/>
+      <c r="NE1" s="0"/>
+      <c r="NF1" s="0"/>
+      <c r="NG1" s="0"/>
+      <c r="NH1" s="0"/>
+      <c r="NI1" s="0"/>
+      <c r="NJ1" s="0"/>
+      <c r="NK1" s="0"/>
+      <c r="NL1" s="0"/>
+      <c r="NM1" s="0"/>
+      <c r="NN1" s="0"/>
+      <c r="NO1" s="0"/>
+      <c r="NP1" s="0"/>
+      <c r="NQ1" s="0"/>
+      <c r="NR1" s="0"/>
+      <c r="NS1" s="0"/>
+      <c r="NT1" s="0"/>
+      <c r="NU1" s="0"/>
+      <c r="NV1" s="0"/>
+      <c r="NW1" s="0"/>
+      <c r="NX1" s="0"/>
+      <c r="NY1" s="0"/>
+      <c r="NZ1" s="0"/>
+      <c r="OA1" s="0"/>
+      <c r="OB1" s="0"/>
+      <c r="OC1" s="0"/>
+      <c r="OD1" s="0"/>
+      <c r="OE1" s="0"/>
+      <c r="OF1" s="0"/>
+      <c r="OG1" s="0"/>
+      <c r="OH1" s="0"/>
+      <c r="OI1" s="0"/>
+      <c r="OJ1" s="0"/>
+      <c r="OK1" s="0"/>
+      <c r="OL1" s="0"/>
+      <c r="OM1" s="0"/>
+      <c r="ON1" s="0"/>
+      <c r="OO1" s="0"/>
+      <c r="OP1" s="0"/>
+      <c r="OQ1" s="0"/>
+      <c r="OR1" s="0"/>
+      <c r="OS1" s="0"/>
+      <c r="OT1" s="0"/>
+      <c r="OU1" s="0"/>
+      <c r="OV1" s="0"/>
+      <c r="OW1" s="0"/>
+      <c r="OX1" s="0"/>
+      <c r="OY1" s="0"/>
+      <c r="OZ1" s="0"/>
+      <c r="PA1" s="0"/>
+      <c r="PB1" s="0"/>
+      <c r="PC1" s="0"/>
+      <c r="PD1" s="0"/>
+      <c r="PE1" s="0"/>
+      <c r="PF1" s="0"/>
+      <c r="PG1" s="0"/>
+      <c r="PH1" s="0"/>
+      <c r="PI1" s="0"/>
+      <c r="PJ1" s="0"/>
+      <c r="PK1" s="0"/>
+      <c r="PL1" s="0"/>
+      <c r="PM1" s="0"/>
+      <c r="PN1" s="0"/>
+      <c r="PO1" s="0"/>
+      <c r="PP1" s="0"/>
+      <c r="PQ1" s="0"/>
+      <c r="PR1" s="0"/>
+      <c r="PS1" s="0"/>
+      <c r="PT1" s="0"/>
+      <c r="PU1" s="0"/>
+      <c r="PV1" s="0"/>
+      <c r="PW1" s="0"/>
+      <c r="PX1" s="0"/>
+      <c r="PY1" s="0"/>
+      <c r="PZ1" s="0"/>
+      <c r="QA1" s="0"/>
+      <c r="QB1" s="0"/>
+      <c r="QC1" s="0"/>
+      <c r="QD1" s="0"/>
+      <c r="QE1" s="0"/>
+      <c r="QF1" s="0"/>
+      <c r="QG1" s="0"/>
+      <c r="QH1" s="0"/>
+      <c r="QI1" s="0"/>
+      <c r="QJ1" s="0"/>
+      <c r="QK1" s="0"/>
+      <c r="QL1" s="0"/>
+      <c r="QM1" s="0"/>
+      <c r="QN1" s="0"/>
+      <c r="QO1" s="0"/>
+      <c r="QP1" s="0"/>
+      <c r="QQ1" s="0"/>
+      <c r="QR1" s="0"/>
+      <c r="QS1" s="0"/>
+      <c r="QT1" s="0"/>
+      <c r="QU1" s="0"/>
+      <c r="QV1" s="0"/>
+      <c r="QW1" s="0"/>
+      <c r="QX1" s="0"/>
+      <c r="QY1" s="0"/>
+      <c r="QZ1" s="0"/>
+      <c r="RA1" s="0"/>
+      <c r="RB1" s="0"/>
+      <c r="RC1" s="0"/>
+      <c r="RD1" s="0"/>
+      <c r="RE1" s="0"/>
+      <c r="RF1" s="0"/>
+      <c r="RG1" s="0"/>
+      <c r="RH1" s="0"/>
+      <c r="RI1" s="0"/>
+      <c r="RJ1" s="0"/>
+      <c r="RK1" s="0"/>
+      <c r="RL1" s="0"/>
+      <c r="RM1" s="0"/>
+      <c r="RN1" s="0"/>
+      <c r="RO1" s="0"/>
+      <c r="RP1" s="0"/>
+      <c r="RQ1" s="0"/>
+      <c r="RR1" s="0"/>
+      <c r="RS1" s="0"/>
+      <c r="RT1" s="0"/>
+      <c r="RU1" s="0"/>
+      <c r="RV1" s="0"/>
+      <c r="RW1" s="0"/>
+      <c r="RX1" s="0"/>
+      <c r="RY1" s="0"/>
+      <c r="RZ1" s="0"/>
+      <c r="SA1" s="0"/>
+      <c r="SB1" s="0"/>
+      <c r="SC1" s="0"/>
+      <c r="SD1" s="0"/>
+      <c r="SE1" s="0"/>
+      <c r="SF1" s="0"/>
+      <c r="SG1" s="0"/>
+      <c r="SH1" s="0"/>
+      <c r="SI1" s="0"/>
+      <c r="SJ1" s="0"/>
+      <c r="SK1" s="0"/>
+      <c r="SL1" s="0"/>
+      <c r="SM1" s="0"/>
+      <c r="SN1" s="0"/>
+      <c r="SO1" s="0"/>
+      <c r="SP1" s="0"/>
+      <c r="SQ1" s="0"/>
+      <c r="SR1" s="0"/>
+      <c r="SS1" s="0"/>
+      <c r="ST1" s="0"/>
+      <c r="SU1" s="0"/>
+      <c r="SV1" s="0"/>
+      <c r="SW1" s="0"/>
+      <c r="SX1" s="0"/>
+      <c r="SY1" s="0"/>
+      <c r="SZ1" s="0"/>
+      <c r="TA1" s="0"/>
+      <c r="TB1" s="0"/>
+      <c r="TC1" s="0"/>
+      <c r="TD1" s="0"/>
+      <c r="TE1" s="0"/>
+      <c r="TF1" s="0"/>
+      <c r="TG1" s="0"/>
+      <c r="TH1" s="0"/>
+      <c r="TI1" s="0"/>
+      <c r="TJ1" s="0"/>
+      <c r="TK1" s="0"/>
+      <c r="TL1" s="0"/>
+      <c r="TM1" s="0"/>
+      <c r="TN1" s="0"/>
+      <c r="TO1" s="0"/>
+      <c r="TP1" s="0"/>
+      <c r="TQ1" s="0"/>
+      <c r="TR1" s="0"/>
+      <c r="TS1" s="0"/>
+      <c r="TT1" s="0"/>
+      <c r="TU1" s="0"/>
+      <c r="TV1" s="0"/>
+      <c r="TW1" s="0"/>
+      <c r="TX1" s="0"/>
+      <c r="TY1" s="0"/>
+      <c r="TZ1" s="0"/>
+      <c r="UA1" s="0"/>
+      <c r="UB1" s="0"/>
+      <c r="UC1" s="0"/>
+      <c r="UD1" s="0"/>
+      <c r="UE1" s="0"/>
+      <c r="UF1" s="0"/>
+      <c r="UG1" s="0"/>
+      <c r="UH1" s="0"/>
+      <c r="UI1" s="0"/>
+      <c r="UJ1" s="0"/>
+      <c r="UK1" s="0"/>
+      <c r="UL1" s="0"/>
+      <c r="UM1" s="0"/>
+      <c r="UN1" s="0"/>
+      <c r="UO1" s="0"/>
+      <c r="UP1" s="0"/>
+      <c r="UQ1" s="0"/>
+      <c r="UR1" s="0"/>
+      <c r="US1" s="0"/>
+      <c r="UT1" s="0"/>
+      <c r="UU1" s="0"/>
+      <c r="UV1" s="0"/>
+      <c r="UW1" s="0"/>
+      <c r="UX1" s="0"/>
+      <c r="UY1" s="0"/>
+      <c r="UZ1" s="0"/>
+      <c r="VA1" s="0"/>
+      <c r="VB1" s="0"/>
+      <c r="VC1" s="0"/>
+      <c r="VD1" s="0"/>
+      <c r="VE1" s="0"/>
+      <c r="VF1" s="0"/>
+      <c r="VG1" s="0"/>
+      <c r="VH1" s="0"/>
+      <c r="VI1" s="0"/>
+      <c r="VJ1" s="0"/>
+      <c r="VK1" s="0"/>
+      <c r="VL1" s="0"/>
+      <c r="VM1" s="0"/>
+      <c r="VN1" s="0"/>
+      <c r="VO1" s="0"/>
+      <c r="VP1" s="0"/>
+      <c r="VQ1" s="0"/>
+      <c r="VR1" s="0"/>
+      <c r="VS1" s="0"/>
+      <c r="VT1" s="0"/>
+      <c r="VU1" s="0"/>
+      <c r="VV1" s="0"/>
+      <c r="VW1" s="0"/>
+      <c r="VX1" s="0"/>
+      <c r="VY1" s="0"/>
+      <c r="VZ1" s="0"/>
+      <c r="WA1" s="0"/>
+      <c r="WB1" s="0"/>
+      <c r="WC1" s="0"/>
+      <c r="WD1" s="0"/>
+      <c r="WE1" s="0"/>
+      <c r="WF1" s="0"/>
+      <c r="WG1" s="0"/>
+      <c r="WH1" s="0"/>
+      <c r="WI1" s="0"/>
+      <c r="WJ1" s="0"/>
+      <c r="WK1" s="0"/>
+      <c r="WL1" s="0"/>
+      <c r="WM1" s="0"/>
+      <c r="WN1" s="0"/>
+      <c r="WO1" s="0"/>
+      <c r="WP1" s="0"/>
+      <c r="WQ1" s="0"/>
+      <c r="WR1" s="0"/>
+      <c r="WS1" s="0"/>
+      <c r="WT1" s="0"/>
+      <c r="WU1" s="0"/>
+      <c r="WV1" s="0"/>
+      <c r="WW1" s="0"/>
+      <c r="WX1" s="0"/>
+      <c r="WY1" s="0"/>
+      <c r="WZ1" s="0"/>
+      <c r="XA1" s="0"/>
+      <c r="XB1" s="0"/>
+      <c r="XC1" s="0"/>
+      <c r="XD1" s="0"/>
+      <c r="XE1" s="0"/>
+      <c r="XF1" s="0"/>
+      <c r="XG1" s="0"/>
+      <c r="XH1" s="0"/>
+      <c r="XI1" s="0"/>
+      <c r="XJ1" s="0"/>
+      <c r="XK1" s="0"/>
+      <c r="XL1" s="0"/>
+      <c r="XM1" s="0"/>
+      <c r="XN1" s="0"/>
+      <c r="XO1" s="0"/>
+      <c r="XP1" s="0"/>
+      <c r="XQ1" s="0"/>
+      <c r="XR1" s="0"/>
+      <c r="XS1" s="0"/>
+      <c r="XT1" s="0"/>
+      <c r="XU1" s="0"/>
+      <c r="XV1" s="0"/>
+      <c r="XW1" s="0"/>
+      <c r="XX1" s="0"/>
+      <c r="XY1" s="0"/>
+      <c r="XZ1" s="0"/>
+      <c r="YA1" s="0"/>
+      <c r="YB1" s="0"/>
+      <c r="YC1" s="0"/>
+      <c r="YD1" s="0"/>
+      <c r="YE1" s="0"/>
+      <c r="YF1" s="0"/>
+      <c r="YG1" s="0"/>
+      <c r="YH1" s="0"/>
+      <c r="YI1" s="0"/>
+      <c r="YJ1" s="0"/>
+      <c r="YK1" s="0"/>
+      <c r="YL1" s="0"/>
+      <c r="YM1" s="0"/>
+      <c r="YN1" s="0"/>
+      <c r="YO1" s="0"/>
+      <c r="YP1" s="0"/>
+      <c r="YQ1" s="0"/>
+      <c r="YR1" s="0"/>
+      <c r="YS1" s="0"/>
+      <c r="YT1" s="0"/>
+      <c r="YU1" s="0"/>
+      <c r="YV1" s="0"/>
+      <c r="YW1" s="0"/>
+      <c r="YX1" s="0"/>
+      <c r="YY1" s="0"/>
+      <c r="YZ1" s="0"/>
+      <c r="ZA1" s="0"/>
+      <c r="ZB1" s="0"/>
+      <c r="ZC1" s="0"/>
+      <c r="ZD1" s="0"/>
+      <c r="ZE1" s="0"/>
+      <c r="ZF1" s="0"/>
+      <c r="ZG1" s="0"/>
+      <c r="ZH1" s="0"/>
+      <c r="ZI1" s="0"/>
+      <c r="ZJ1" s="0"/>
+      <c r="ZK1" s="0"/>
+      <c r="ZL1" s="0"/>
+      <c r="ZM1" s="0"/>
+      <c r="ZN1" s="0"/>
+      <c r="ZO1" s="0"/>
+      <c r="ZP1" s="0"/>
+      <c r="ZQ1" s="0"/>
+      <c r="ZR1" s="0"/>
+      <c r="ZS1" s="0"/>
+      <c r="ZT1" s="0"/>
+      <c r="ZU1" s="0"/>
+      <c r="ZV1" s="0"/>
+      <c r="ZW1" s="0"/>
+      <c r="ZX1" s="0"/>
+      <c r="ZY1" s="0"/>
+      <c r="ZZ1" s="0"/>
+      <c r="AAA1" s="0"/>
+      <c r="AAB1" s="0"/>
+      <c r="AAC1" s="0"/>
+      <c r="AAD1" s="0"/>
+      <c r="AAE1" s="0"/>
+      <c r="AAF1" s="0"/>
+      <c r="AAG1" s="0"/>
+      <c r="AAH1" s="0"/>
+      <c r="AAI1" s="0"/>
+      <c r="AAJ1" s="0"/>
+      <c r="AAK1" s="0"/>
+      <c r="AAL1" s="0"/>
+      <c r="AAM1" s="0"/>
+      <c r="AAN1" s="0"/>
+      <c r="AAO1" s="0"/>
+      <c r="AAP1" s="0"/>
+      <c r="AAQ1" s="0"/>
+      <c r="AAR1" s="0"/>
+      <c r="AAS1" s="0"/>
+      <c r="AAT1" s="0"/>
+      <c r="AAU1" s="0"/>
+      <c r="AAV1" s="0"/>
+      <c r="AAW1" s="0"/>
+      <c r="AAX1" s="0"/>
+      <c r="AAY1" s="0"/>
+      <c r="AAZ1" s="0"/>
+      <c r="ABA1" s="0"/>
+      <c r="ABB1" s="0"/>
+      <c r="ABC1" s="0"/>
+      <c r="ABD1" s="0"/>
+      <c r="ABE1" s="0"/>
+      <c r="ABF1" s="0"/>
+      <c r="ABG1" s="0"/>
+      <c r="ABH1" s="0"/>
+      <c r="ABI1" s="0"/>
+      <c r="ABJ1" s="0"/>
+      <c r="ABK1" s="0"/>
+      <c r="ABL1" s="0"/>
+      <c r="ABM1" s="0"/>
+      <c r="ABN1" s="0"/>
+      <c r="ABO1" s="0"/>
+      <c r="ABP1" s="0"/>
+      <c r="ABQ1" s="0"/>
+      <c r="ABR1" s="0"/>
+      <c r="ABS1" s="0"/>
+      <c r="ABT1" s="0"/>
+      <c r="ABU1" s="0"/>
+      <c r="ABV1" s="0"/>
+      <c r="ABW1" s="0"/>
+      <c r="ABX1" s="0"/>
+      <c r="ABY1" s="0"/>
+      <c r="ABZ1" s="0"/>
+      <c r="ACA1" s="0"/>
+      <c r="ACB1" s="0"/>
+      <c r="ACC1" s="0"/>
+      <c r="ACD1" s="0"/>
+      <c r="ACE1" s="0"/>
+      <c r="ACF1" s="0"/>
+      <c r="ACG1" s="0"/>
+      <c r="ACH1" s="0"/>
+      <c r="ACI1" s="0"/>
+      <c r="ACJ1" s="0"/>
+      <c r="ACK1" s="0"/>
+      <c r="ACL1" s="0"/>
+      <c r="ACM1" s="0"/>
+      <c r="ACN1" s="0"/>
+      <c r="ACO1" s="0"/>
+      <c r="ACP1" s="0"/>
+      <c r="ACQ1" s="0"/>
+      <c r="ACR1" s="0"/>
+      <c r="ACS1" s="0"/>
+      <c r="ACT1" s="0"/>
+      <c r="ACU1" s="0"/>
+      <c r="ACV1" s="0"/>
+      <c r="ACW1" s="0"/>
+      <c r="ACX1" s="0"/>
+      <c r="ACY1" s="0"/>
+      <c r="ACZ1" s="0"/>
+      <c r="ADA1" s="0"/>
+      <c r="ADB1" s="0"/>
+      <c r="ADC1" s="0"/>
+      <c r="ADD1" s="0"/>
+      <c r="ADE1" s="0"/>
+      <c r="ADF1" s="0"/>
+      <c r="ADG1" s="0"/>
+      <c r="ADH1" s="0"/>
+      <c r="ADI1" s="0"/>
+      <c r="ADJ1" s="0"/>
+      <c r="ADK1" s="0"/>
+      <c r="ADL1" s="0"/>
+      <c r="ADM1" s="0"/>
+      <c r="ADN1" s="0"/>
+      <c r="ADO1" s="0"/>
+      <c r="ADP1" s="0"/>
+      <c r="ADQ1" s="0"/>
+      <c r="ADR1" s="0"/>
+      <c r="ADS1" s="0"/>
+      <c r="ADT1" s="0"/>
+      <c r="ADU1" s="0"/>
+      <c r="ADV1" s="0"/>
+      <c r="ADW1" s="0"/>
+      <c r="ADX1" s="0"/>
+      <c r="ADY1" s="0"/>
+      <c r="ADZ1" s="0"/>
+      <c r="AEA1" s="0"/>
+      <c r="AEB1" s="0"/>
+      <c r="AEC1" s="0"/>
+      <c r="AED1" s="0"/>
+      <c r="AEE1" s="0"/>
+      <c r="AEF1" s="0"/>
+      <c r="AEG1" s="0"/>
+      <c r="AEH1" s="0"/>
+      <c r="AEI1" s="0"/>
+      <c r="AEJ1" s="0"/>
+      <c r="AEK1" s="0"/>
+      <c r="AEL1" s="0"/>
+      <c r="AEM1" s="0"/>
+      <c r="AEN1" s="0"/>
+      <c r="AEO1" s="0"/>
+      <c r="AEP1" s="0"/>
+      <c r="AEQ1" s="0"/>
+      <c r="AER1" s="0"/>
+      <c r="AES1" s="0"/>
+      <c r="AET1" s="0"/>
+      <c r="AEU1" s="0"/>
+      <c r="AEV1" s="0"/>
+      <c r="AEW1" s="0"/>
+      <c r="AEX1" s="0"/>
+      <c r="AEY1" s="0"/>
+      <c r="AEZ1" s="0"/>
+      <c r="AFA1" s="0"/>
+      <c r="AFB1" s="0"/>
+      <c r="AFC1" s="0"/>
+      <c r="AFD1" s="0"/>
+      <c r="AFE1" s="0"/>
+      <c r="AFF1" s="0"/>
+      <c r="AFG1" s="0"/>
+      <c r="AFH1" s="0"/>
+      <c r="AFI1" s="0"/>
+      <c r="AFJ1" s="0"/>
+      <c r="AFK1" s="0"/>
+      <c r="AFL1" s="0"/>
+      <c r="AFM1" s="0"/>
+      <c r="AFN1" s="0"/>
+      <c r="AFO1" s="0"/>
+      <c r="AFP1" s="0"/>
+      <c r="AFQ1" s="0"/>
+      <c r="AFR1" s="0"/>
+      <c r="AFS1" s="0"/>
+      <c r="AFT1" s="0"/>
+      <c r="AFU1" s="0"/>
+      <c r="AFV1" s="0"/>
+      <c r="AFW1" s="0"/>
+      <c r="AFX1" s="0"/>
+      <c r="AFY1" s="0"/>
+      <c r="AFZ1" s="0"/>
+      <c r="AGA1" s="0"/>
+      <c r="AGB1" s="0"/>
+      <c r="AGC1" s="0"/>
+      <c r="AGD1" s="0"/>
+      <c r="AGE1" s="0"/>
+      <c r="AGF1" s="0"/>
+      <c r="AGG1" s="0"/>
+      <c r="AGH1" s="0"/>
+      <c r="AGI1" s="0"/>
+      <c r="AGJ1" s="0"/>
+      <c r="AGK1" s="0"/>
+      <c r="AGL1" s="0"/>
+      <c r="AGM1" s="0"/>
+      <c r="AGN1" s="0"/>
+      <c r="AGO1" s="0"/>
+      <c r="AGP1" s="0"/>
+      <c r="AGQ1" s="0"/>
+      <c r="AGR1" s="0"/>
+      <c r="AGS1" s="0"/>
+      <c r="AGT1" s="0"/>
+      <c r="AGU1" s="0"/>
+      <c r="AGV1" s="0"/>
+      <c r="AGW1" s="0"/>
+      <c r="AGX1" s="0"/>
+      <c r="AGY1" s="0"/>
+      <c r="AGZ1" s="0"/>
+      <c r="AHA1" s="0"/>
+      <c r="AHB1" s="0"/>
+      <c r="AHC1" s="0"/>
+      <c r="AHD1" s="0"/>
+      <c r="AHE1" s="0"/>
+      <c r="AHF1" s="0"/>
+      <c r="AHG1" s="0"/>
+      <c r="AHH1" s="0"/>
+      <c r="AHI1" s="0"/>
+      <c r="AHJ1" s="0"/>
+      <c r="AHK1" s="0"/>
+      <c r="AHL1" s="0"/>
+      <c r="AHM1" s="0"/>
+      <c r="AHN1" s="0"/>
+      <c r="AHO1" s="0"/>
+      <c r="AHP1" s="0"/>
+      <c r="AHQ1" s="0"/>
+      <c r="AHR1" s="0"/>
+      <c r="AHS1" s="0"/>
+      <c r="AHT1" s="0"/>
+      <c r="AHU1" s="0"/>
+      <c r="AHV1" s="0"/>
+      <c r="AHW1" s="0"/>
+      <c r="AHX1" s="0"/>
+      <c r="AHY1" s="0"/>
+      <c r="AHZ1" s="0"/>
+      <c r="AIA1" s="0"/>
+      <c r="AIB1" s="0"/>
+      <c r="AIC1" s="0"/>
+      <c r="AID1" s="0"/>
+      <c r="AIE1" s="0"/>
+      <c r="AIF1" s="0"/>
+      <c r="AIG1" s="0"/>
+      <c r="AIH1" s="0"/>
+      <c r="AII1" s="0"/>
+      <c r="AIJ1" s="0"/>
+      <c r="AIK1" s="0"/>
+      <c r="AIL1" s="0"/>
+      <c r="AIM1" s="0"/>
+      <c r="AIN1" s="0"/>
+      <c r="AIO1" s="0"/>
+      <c r="AIP1" s="0"/>
+      <c r="AIQ1" s="0"/>
+      <c r="AIR1" s="0"/>
+      <c r="AIS1" s="0"/>
+      <c r="AIT1" s="0"/>
+      <c r="AIU1" s="0"/>
+      <c r="AIV1" s="0"/>
+      <c r="AIW1" s="0"/>
+      <c r="AIX1" s="0"/>
+      <c r="AIY1" s="0"/>
+      <c r="AIZ1" s="0"/>
+      <c r="AJA1" s="0"/>
+      <c r="AJB1" s="0"/>
+      <c r="AJC1" s="0"/>
+      <c r="AJD1" s="0"/>
+      <c r="AJE1" s="0"/>
+      <c r="AJF1" s="0"/>
+      <c r="AJG1" s="0"/>
+      <c r="AJH1" s="0"/>
+      <c r="AJI1" s="0"/>
+      <c r="AJJ1" s="0"/>
+      <c r="AJK1" s="0"/>
+      <c r="AJL1" s="0"/>
+      <c r="AJM1" s="0"/>
+      <c r="AJN1" s="0"/>
+      <c r="AJO1" s="0"/>
+      <c r="AJP1" s="0"/>
+      <c r="AJQ1" s="0"/>
+      <c r="AJR1" s="0"/>
+      <c r="AJS1" s="0"/>
+      <c r="AJT1" s="0"/>
+      <c r="AJU1" s="0"/>
+      <c r="AJV1" s="0"/>
+      <c r="AJW1" s="0"/>
+      <c r="AJX1" s="0"/>
+      <c r="AJY1" s="0"/>
+      <c r="AJZ1" s="0"/>
+      <c r="AKA1" s="0"/>
+      <c r="AKB1" s="0"/>
+      <c r="AKC1" s="0"/>
+      <c r="AKD1" s="0"/>
+      <c r="AKE1" s="0"/>
+      <c r="AKF1" s="0"/>
+      <c r="AKG1" s="0"/>
+      <c r="AKH1" s="0"/>
+      <c r="AKI1" s="0"/>
+      <c r="AKJ1" s="0"/>
+      <c r="AKK1" s="0"/>
+      <c r="AKL1" s="0"/>
+      <c r="AKM1" s="0"/>
+      <c r="AKN1" s="0"/>
+      <c r="AKO1" s="0"/>
+      <c r="AKP1" s="0"/>
+      <c r="AKQ1" s="0"/>
+      <c r="AKR1" s="0"/>
+      <c r="AKS1" s="0"/>
+      <c r="AKT1" s="0"/>
+      <c r="AKU1" s="0"/>
+      <c r="AKV1" s="0"/>
+      <c r="AKW1" s="0"/>
+      <c r="AKX1" s="0"/>
+      <c r="AKY1" s="0"/>
+      <c r="AKZ1" s="0"/>
+      <c r="ALA1" s="0"/>
+      <c r="ALB1" s="0"/>
+      <c r="ALC1" s="0"/>
+      <c r="ALD1" s="0"/>
+      <c r="ALE1" s="0"/>
+      <c r="ALF1" s="0"/>
+      <c r="ALG1" s="0"/>
+      <c r="ALH1" s="0"/>
+      <c r="ALI1" s="0"/>
+      <c r="ALJ1" s="0"/>
+      <c r="ALK1" s="0"/>
+      <c r="ALL1" s="0"/>
+      <c r="ALM1" s="0"/>
+      <c r="ALN1" s="0"/>
+      <c r="ALO1" s="0"/>
+      <c r="ALP1" s="0"/>
+      <c r="ALQ1" s="0"/>
+      <c r="ALR1" s="0"/>
+      <c r="ALS1" s="0"/>
+      <c r="ALT1" s="0"/>
+      <c r="ALU1" s="0"/>
+      <c r="ALV1" s="0"/>
+      <c r="ALW1" s="0"/>
+      <c r="ALX1" s="0"/>
+      <c r="ALY1" s="0"/>
+      <c r="ALZ1" s="0"/>
+      <c r="AMA1" s="0"/>
+      <c r="AMB1" s="0"/>
+      <c r="AMC1" s="0"/>
+      <c r="AMD1" s="0"/>
+      <c r="AME1" s="0"/>
+      <c r="AMF1" s="0"/>
+      <c r="AMG1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -2482,7 +3486,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2497,27 +3501,27 @@
   </sheetPr>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3097,7 +4101,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3112,27 +4116,27 @@
   </sheetPr>
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3740,7 +4744,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3755,88 +4759,88 @@
   </sheetPr>
   <dimension ref="A1:AB42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3844,13 +4848,13 @@
         <v>69</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -3862,10 +4866,10 @@
         <v>1</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -3877,10 +4881,10 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
@@ -3891,13 +4895,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -3909,10 +4913,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -3924,10 +4928,10 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
@@ -3938,13 +4942,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -3956,10 +4960,10 @@
         <v>2</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -3971,10 +4975,10 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
@@ -3985,7 +4989,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>25</v>
@@ -4012,10 +5016,10 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
@@ -4026,13 +5030,13 @@
         <v>73</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4041,19 +5045,19 @@
         <v>56</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" s="4" t="n">
         <v>2</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="S6" s="4" t="n">
         <v>5470828</v>
@@ -4062,10 +5066,10 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
@@ -4076,10 +5080,10 @@
         <v>74</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>29</v>
@@ -4094,10 +5098,10 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
@@ -4108,13 +5112,13 @@
         <v>75</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -4126,13 +5130,13 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
@@ -4142,16 +5146,16 @@
         <v>76</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -4169,16 +5173,16 @@
         <v>77</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>284</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -4189,10 +5193,10 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
@@ -4202,13 +5206,13 @@
         <v>78</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -4216,23 +5220,23 @@
         <v>1</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="T11" s="4"/>
       <c r="V11" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
@@ -4242,13 +5246,13 @@
         <v>79</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -4257,13 +5261,13 @@
       </c>
       <c r="T12" s="4"/>
       <c r="X12" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Y12" s="4" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
@@ -4273,59 +5277,59 @@
         <v>80</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G13" s="4"/>
       <c r="I13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K13" s="4" t="n">
         <v>2</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="U13" s="4" t="n">
         <v>6815421</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="W13" s="4" t="n">
         <v>6815421</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
@@ -4335,19 +5339,19 @@
         <v>81</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
@@ -4357,37 +5361,37 @@
         <v>24</v>
       </c>
       <c r="J14" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" s="4" t="n">
         <v>2</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="U14" s="4" t="n">
         <v>6815421</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="W14" s="4" t="n">
         <v>6815421</v>
@@ -4400,19 +5404,19 @@
         <v>82</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4" t="s">
@@ -4422,54 +5426,54 @@
         <v>24</v>
       </c>
       <c r="J15" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" s="4" t="n">
         <v>2</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="U15" s="4" t="n">
         <v>6815421</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="W15" s="4" t="n">
         <v>6815421</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>37</v>
@@ -4482,10 +5486,10 @@
         <v>1</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4493,16 +5497,16 @@
         <v>84</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>33</v>
@@ -4512,25 +5516,25 @@
         <v>2</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="M17" s="4" t="n">
         <v>19686854</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="O17" s="4" t="n">
         <v>4154932</v>
       </c>
       <c r="V17" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="W17" s="4" t="n">
         <v>19686854</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4538,16 +5542,16 @@
         <v>85</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>317</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>33</v>
@@ -4557,25 +5561,25 @@
         <v>2</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="M18" s="4" t="n">
         <v>19686854</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="O18" s="4" t="n">
         <v>4154932</v>
       </c>
       <c r="V18" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="W18" s="4" t="n">
         <v>19686854</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4583,10 +5587,10 @@
         <v>86</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>40</v>
@@ -4596,13 +5600,13 @@
         <v>2</v>
       </c>
       <c r="V19" s="4" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="Y19" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4610,29 +5614,29 @@
         <v>87</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G20" s="4"/>
       <c r="K20" s="4" t="n">
         <v>2</v>
       </c>
       <c r="V20" s="4" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Y20" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4640,35 +5644,35 @@
         <v>88</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G21" s="4"/>
       <c r="K21" s="4" t="n">
         <v>2</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="M21" s="4" t="n">
         <v>17914867</v>
       </c>
       <c r="V21" s="4" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="W21" s="4" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="Y21" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4676,35 +5680,35 @@
         <v>89</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G22" s="4"/>
       <c r="K22" s="4" t="n">
         <v>2</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="M22" s="4" t="n">
         <v>17914867</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="W22" s="4" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="Y22" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4712,35 +5716,35 @@
         <v>90</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G23" s="4"/>
       <c r="K23" s="4" t="n">
         <v>2</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="M23" s="4" t="n">
         <v>8805555</v>
       </c>
       <c r="V23" s="4" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="W23" s="4" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="X23" s="4" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="Y23" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4748,7 +5752,7 @@
         <v>91</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
@@ -4763,22 +5767,22 @@
         <v>2</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="O24" s="4" t="n">
         <v>4154932</v>
       </c>
       <c r="V24" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="W24" s="4" t="n">
         <v>6326623</v>
       </c>
       <c r="X24" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Y24" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4786,34 +5790,34 @@
         <v>92</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="K25" s="4" t="n">
         <v>3</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="V25" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="W25" s="4" t="n">
         <v>12876349</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="Y25" s="4" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4821,7 +5825,7 @@
         <v>93</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>24</v>
@@ -4833,16 +5837,16 @@
         <v>2</v>
       </c>
       <c r="V26" s="4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="W26" s="4" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="X26" s="4" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="Y26" s="4" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4850,28 +5854,28 @@
         <v>94</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K27" s="4" t="n">
         <v>4</v>
       </c>
       <c r="V27" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="W27" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="W27" s="4" t="s">
-        <v>348</v>
-      </c>
       <c r="X27" s="4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="Y27" s="4" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4879,10 +5883,10 @@
         <v>95</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>48</v>
@@ -4891,22 +5895,22 @@
         <v>4</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="V28" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="W28" s="4" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="X28" s="4" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="Y28" s="4" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4914,7 +5918,7 @@
         <v>96</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>42</v>
@@ -4926,16 +5930,16 @@
         <v>2</v>
       </c>
       <c r="V29" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="W29" s="4" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="X29" s="4" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="Y29" s="4" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4943,40 +5947,40 @@
         <v>97</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>54</v>
       </c>
       <c r="J30" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K30" s="4" t="n">
         <v>4</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="M30" s="4" t="n">
         <v>7447472</v>
       </c>
       <c r="V30" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="W30" s="4" t="n">
         <v>8636984</v>
       </c>
       <c r="X30" s="4" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="Y30" s="4" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4984,34 +5988,34 @@
         <v>98</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="K31" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="M31" s="4" t="n">
         <v>5128739</v>
       </c>
       <c r="V31" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="W31" s="4" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Y31" s="4" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5019,7 +6023,7 @@
         <v>99</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>51</v>
@@ -5031,19 +6035,19 @@
         <v>1</v>
       </c>
       <c r="V32" s="4" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="W32" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="X32" s="4" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="Y32" s="4" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="Z32" s="4" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5051,7 +6055,7 @@
         <v>100</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>52</v>
@@ -5063,16 +6067,16 @@
         <v>2</v>
       </c>
       <c r="V33" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="W33" s="4" t="n">
         <v>9376357</v>
       </c>
       <c r="X33" s="4" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="Y33" s="4" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5080,46 +6084,46 @@
         <v>101</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="J34" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K34" s="4" t="n">
         <v>4</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="U34" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="V34" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="W34" s="4" t="n">
         <v>468836</v>
       </c>
       <c r="X34" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="Y34" s="4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5127,10 +6131,10 @@
         <v>102</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>56</v>
@@ -5139,16 +6143,16 @@
         <v>1</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="V35" s="4" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="W35" s="4" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5156,28 +6160,28 @@
         <v>103</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K36" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="V36" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="W36" s="4" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5185,7 +6189,7 @@
         <v>104</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="K37" s="4" t="n">
         <v>1</v>
@@ -5196,7 +6200,7 @@
         <v>105</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="K38" s="4" t="n">
         <v>1</v>
@@ -5207,7 +6211,7 @@
         <v>106</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="K39" s="4" t="n">
         <v>1</v>
@@ -5218,7 +6222,7 @@
         <v>107</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>47</v>
@@ -5247,7 +6251,7 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
       <c r="X40" s="4" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
@@ -5259,7 +6263,7 @@
         <v>108</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>53</v>
@@ -5288,7 +6292,7 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
       <c r="X41" s="4" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
@@ -5300,7 +6304,7 @@
         <v>109</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>60</v>
@@ -5330,7 +6334,7 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
       <c r="X42" s="4" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
@@ -5346,7 +6350,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5359,15 +6363,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:50"/>
+  <dimension ref="A1:AMJ50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N26" activeCellId="0" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="2" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="2" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61873,7 +62877,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -61888,30 +62892,30 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I36" activeCellId="0" sqref="I36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="19.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -62781,7 +63785,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -62796,31 +63800,31 @@
   </sheetPr>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>170</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62828,7 +63832,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>0</v>
@@ -62842,7 +63846,7 @@
         <v>70</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>0</v>
@@ -62856,7 +63860,7 @@
         <v>71</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>0</v>
@@ -62870,7 +63874,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>0</v>
@@ -62884,7 +63888,7 @@
         <v>73</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>0</v>
@@ -62898,7 +63902,7 @@
         <v>74</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>0</v>
@@ -62912,7 +63916,7 @@
         <v>75</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>0</v>
@@ -62926,7 +63930,7 @@
         <v>76</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>0</v>
@@ -62940,7 +63944,7 @@
         <v>77</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>0</v>
@@ -62954,7 +63958,7 @@
         <v>78</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>0</v>
@@ -62968,7 +63972,7 @@
         <v>79</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>0</v>
@@ -62982,7 +63986,7 @@
         <v>80</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C13" s="4" t="n">
         <v>0</v>
@@ -62991,7 +63995,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62999,7 +64003,7 @@
         <v>81</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>0</v>
@@ -63008,7 +64012,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -63016,7 +64020,7 @@
         <v>82</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>0</v>
@@ -63025,7 +64029,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -63033,7 +64037,7 @@
         <v>83</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>0</v>
@@ -63048,7 +64052,7 @@
         <v>84</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C17" s="4" t="n">
         <v>0</v>
@@ -63063,7 +64067,7 @@
         <v>85</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C18" s="4" t="n">
         <v>0</v>
@@ -63078,7 +64082,7 @@
         <v>86</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>0</v>
@@ -63093,7 +64097,7 @@
         <v>87</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>0</v>
@@ -63108,7 +64112,7 @@
         <v>88</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C21" s="4" t="n">
         <v>0</v>
@@ -63123,7 +64127,7 @@
         <v>89</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C22" s="4" t="n">
         <v>0</v>
@@ -63138,7 +64142,7 @@
         <v>90</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C23" s="4" t="n">
         <v>0</v>
@@ -63153,7 +64157,7 @@
         <v>91</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>0</v>
@@ -63168,7 +64172,7 @@
         <v>92</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C25" s="4" t="n">
         <v>0</v>
@@ -63183,7 +64187,7 @@
         <v>93</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C26" s="4" t="n">
         <v>0</v>
@@ -63198,7 +64202,7 @@
         <v>94</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>0</v>
@@ -63213,7 +64217,7 @@
         <v>95</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>0</v>
@@ -63228,7 +64232,7 @@
         <v>96</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C29" s="4" t="n">
         <v>0</v>
@@ -63243,7 +64247,7 @@
         <v>97</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>0</v>
@@ -63258,7 +64262,7 @@
         <v>98</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C31" s="4" t="n">
         <v>0</v>
@@ -63273,7 +64277,7 @@
         <v>99</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C32" s="4" t="n">
         <v>0</v>
@@ -63288,7 +64292,7 @@
         <v>100</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C33" s="4" t="n">
         <v>0</v>
@@ -63303,7 +64307,7 @@
         <v>101</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C34" s="4" t="n">
         <v>0</v>
@@ -63318,7 +64322,7 @@
         <v>102</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C35" s="4" t="n">
         <v>0</v>
@@ -63333,7 +64337,7 @@
         <v>103</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>0</v>
@@ -63348,7 +64352,7 @@
         <v>104</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C37" s="4" t="n">
         <v>0</v>
@@ -63363,7 +64367,7 @@
         <v>105</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>0</v>
@@ -63378,7 +64382,7 @@
         <v>106</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C39" s="4" t="n">
         <v>0</v>
@@ -63393,7 +64397,7 @@
         <v>107</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C40" s="4" t="n">
         <v>0</v>
@@ -63408,7 +64412,7 @@
         <v>108</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C41" s="4" t="n">
         <v>0</v>
@@ -63423,7 +64427,7 @@
         <v>109</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C42" s="4" t="n">
         <v>0</v>
@@ -63436,7 +64440,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -63449,20 +64453,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A43"/>
+  <dimension ref="A1:A43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -63673,7 +64678,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -63688,18 +64693,18 @@
   </sheetPr>
   <dimension ref="A2:A45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>209</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -63920,7 +64925,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -63935,18 +64940,18 @@
   </sheetPr>
   <dimension ref="A2:A45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>209</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -64167,7 +65172,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -64182,24 +65187,24 @@
   </sheetPr>
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -64656,7 +65661,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -64671,24 +65676,24 @@
   </sheetPr>
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -65167,7 +66172,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/model_v1_manual2_EX.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/model_v1_manual2_EX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="386">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -680,6 +680,12 @@
   </si>
   <si>
     <t xml:space="preserve">vref_std (mmol/L/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean2 (mmol/L/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std2 (mmol/L/h)</t>
   </si>
   <si>
     <t xml:space="preserve">reaction/enzyme ID</t>
@@ -1459,8 +1465,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1480,10 +1486,10 @@
         <v>215</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F1" s="0"/>
       <c r="G1" s="0"/>
@@ -3512,16 +3518,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4130,13 +4136,13 @@
         <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4759,7 +4765,7 @@
   </sheetPr>
   <dimension ref="A1:AB42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -4774,73 +4780,73 @@
         <v>167</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4848,13 +4854,13 @@
         <v>69</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -4866,10 +4872,10 @@
         <v>1</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -4881,10 +4887,10 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
@@ -4895,13 +4901,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -4913,10 +4919,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -4928,10 +4934,10 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
@@ -4942,13 +4948,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -4960,10 +4966,10 @@
         <v>2</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -4975,10 +4981,10 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
@@ -4989,7 +4995,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>25</v>
@@ -5016,10 +5022,10 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
@@ -5030,13 +5036,13 @@
         <v>73</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -5051,13 +5057,13 @@
         <v>2</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="S6" s="4" t="n">
         <v>5470828</v>
@@ -5066,10 +5072,10 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
@@ -5080,10 +5086,10 @@
         <v>74</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>29</v>
@@ -5098,10 +5104,10 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
@@ -5112,13 +5118,13 @@
         <v>75</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -5130,13 +5136,13 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
@@ -5146,16 +5152,16 @@
         <v>76</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -5173,16 +5179,16 @@
         <v>77</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>277</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -5193,10 +5199,10 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
@@ -5206,13 +5212,13 @@
         <v>78</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -5220,23 +5226,23 @@
         <v>1</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="T11" s="4"/>
       <c r="V11" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
@@ -5246,13 +5252,13 @@
         <v>79</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -5261,13 +5267,13 @@
       </c>
       <c r="T12" s="4"/>
       <c r="X12" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Y12" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
@@ -5277,16 +5283,16 @@
         <v>80</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G13" s="4"/>
       <c r="I13" s="4" t="s">
@@ -5299,37 +5305,37 @@
         <v>2</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="U13" s="4" t="n">
         <v>6815421</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="W13" s="4" t="n">
         <v>6815421</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
@@ -5339,19 +5345,19 @@
         <v>81</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
@@ -5367,31 +5373,31 @@
         <v>2</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="U14" s="4" t="n">
         <v>6815421</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="W14" s="4" t="n">
         <v>6815421</v>
@@ -5404,19 +5410,19 @@
         <v>82</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4" t="s">
@@ -5432,48 +5438,48 @@
         <v>2</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="U15" s="4" t="n">
         <v>6815421</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="W15" s="4" t="n">
         <v>6815421</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>37</v>
@@ -5486,10 +5492,10 @@
         <v>1</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5497,16 +5503,16 @@
         <v>84</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>33</v>
@@ -5516,25 +5522,25 @@
         <v>2</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M17" s="4" t="n">
         <v>19686854</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O17" s="4" t="n">
         <v>4154932</v>
       </c>
       <c r="V17" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="W17" s="4" t="n">
         <v>19686854</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5542,16 +5548,16 @@
         <v>85</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>310</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>33</v>
@@ -5561,25 +5567,25 @@
         <v>2</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M18" s="4" t="n">
         <v>19686854</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O18" s="4" t="n">
         <v>4154932</v>
       </c>
       <c r="V18" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="W18" s="4" t="n">
         <v>19686854</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5587,10 +5593,10 @@
         <v>86</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>40</v>
@@ -5600,13 +5606,13 @@
         <v>2</v>
       </c>
       <c r="V19" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Y19" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5614,29 +5620,29 @@
         <v>87</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G20" s="4"/>
       <c r="K20" s="4" t="n">
         <v>2</v>
       </c>
       <c r="V20" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Y20" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5644,35 +5650,35 @@
         <v>88</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G21" s="4"/>
       <c r="K21" s="4" t="n">
         <v>2</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M21" s="4" t="n">
         <v>17914867</v>
       </c>
       <c r="V21" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="W21" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Y21" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5680,35 +5686,35 @@
         <v>89</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G22" s="4"/>
       <c r="K22" s="4" t="n">
         <v>2</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M22" s="4" t="n">
         <v>17914867</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="W22" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Y22" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5716,35 +5722,35 @@
         <v>90</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G23" s="4"/>
       <c r="K23" s="4" t="n">
         <v>2</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M23" s="4" t="n">
         <v>8805555</v>
       </c>
       <c r="V23" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="W23" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="X23" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Y23" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5752,7 +5758,7 @@
         <v>91</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
@@ -5767,22 +5773,22 @@
         <v>2</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O24" s="4" t="n">
         <v>4154932</v>
       </c>
       <c r="V24" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="W24" s="4" t="n">
         <v>6326623</v>
       </c>
       <c r="X24" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Y24" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5790,34 +5796,34 @@
         <v>92</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K25" s="4" t="n">
         <v>3</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="V25" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="W25" s="4" t="n">
         <v>12876349</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Y25" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5825,7 +5831,7 @@
         <v>93</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>24</v>
@@ -5837,16 +5843,16 @@
         <v>2</v>
       </c>
       <c r="V26" s="4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="W26" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="X26" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Y26" s="4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5854,28 +5860,28 @@
         <v>94</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K27" s="4" t="n">
         <v>4</v>
       </c>
       <c r="V27" s="4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="W27" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="X27" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Y27" s="4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5883,10 +5889,10 @@
         <v>95</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>48</v>
@@ -5895,22 +5901,22 @@
         <v>4</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="V28" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="W28" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="X28" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Y28" s="4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5918,7 +5924,7 @@
         <v>96</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>42</v>
@@ -5930,16 +5936,16 @@
         <v>2</v>
       </c>
       <c r="V29" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="W29" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="X29" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Y29" s="4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5947,13 +5953,13 @@
         <v>97</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>54</v>
@@ -5965,22 +5971,22 @@
         <v>4</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M30" s="4" t="n">
         <v>7447472</v>
       </c>
       <c r="V30" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="W30" s="4" t="n">
         <v>8636984</v>
       </c>
       <c r="X30" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Y30" s="4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5988,34 +5994,34 @@
         <v>98</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K31" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M31" s="4" t="n">
         <v>5128739</v>
       </c>
       <c r="V31" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="W31" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Y31" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6023,7 +6029,7 @@
         <v>99</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>51</v>
@@ -6035,19 +6041,19 @@
         <v>1</v>
       </c>
       <c r="V32" s="4" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="W32" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="X32" s="4" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Y32" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Z32" s="4" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6055,7 +6061,7 @@
         <v>100</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>52</v>
@@ -6067,16 +6073,16 @@
         <v>2</v>
       </c>
       <c r="V33" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="W33" s="4" t="n">
         <v>9376357</v>
       </c>
       <c r="X33" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Y33" s="4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6084,16 +6090,16 @@
         <v>101</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J34" s="4" t="n">
         <v>1</v>
@@ -6102,28 +6108,28 @@
         <v>4</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="U34" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="V34" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="W34" s="4" t="n">
         <v>468836</v>
       </c>
       <c r="X34" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Y34" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6131,10 +6137,10 @@
         <v>102</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>56</v>
@@ -6143,16 +6149,16 @@
         <v>1</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="V35" s="4" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="W35" s="4" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6160,28 +6166,28 @@
         <v>103</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K36" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="V36" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="W36" s="4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6189,7 +6195,7 @@
         <v>104</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K37" s="4" t="n">
         <v>1</v>
@@ -6200,7 +6206,7 @@
         <v>105</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K38" s="4" t="n">
         <v>1</v>
@@ -6211,7 +6217,7 @@
         <v>106</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K39" s="4" t="n">
         <v>1</v>
@@ -6222,7 +6228,7 @@
         <v>107</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>47</v>
@@ -6251,7 +6257,7 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
       <c r="X40" s="4" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
@@ -6263,7 +6269,7 @@
         <v>108</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>53</v>
@@ -6292,7 +6298,7 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
       <c r="X41" s="4" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
@@ -6304,7 +6310,7 @@
         <v>109</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>60</v>
@@ -6334,7 +6340,7 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
       <c r="X42" s="4" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>

--- a/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/model_v1_manual2_EX.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/model_v1_manual2_EX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="299">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
@@ -1068,15 +1077,15 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="68.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1085,8 +1094,8 @@
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -1121,29 +1130,29 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -1151,25 +1160,41 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1200,26 +1225,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1233,7 +1258,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1247,7 +1272,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -1261,7 +1286,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1275,7 +1300,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1289,7 +1314,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -1303,7 +1328,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1317,7 +1342,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -1331,7 +1356,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -1345,7 +1370,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -1359,7 +1384,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1373,7 +1398,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -1387,7 +1412,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -1401,7 +1426,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -1415,7 +1440,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -1429,7 +1454,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -1443,7 +1468,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -1457,7 +1482,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -1471,7 +1496,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -1485,7 +1510,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -1499,7 +1524,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -1513,7 +1538,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -1527,7 +1552,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -1541,7 +1566,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -1555,7 +1580,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -1569,7 +1594,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -1583,7 +1608,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -1597,7 +1622,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -1611,7 +1636,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -1625,7 +1650,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -1639,7 +1664,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -1653,7 +1678,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -1667,7 +1692,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -1681,7 +1706,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -1695,7 +1720,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -1709,7 +1734,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -1723,7 +1748,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -1737,7 +1762,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -1751,7 +1776,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -1765,7 +1790,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -1779,7 +1804,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -1815,26 +1840,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1848,7 +1873,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1862,7 +1887,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -1876,7 +1901,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1890,7 +1915,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1904,7 +1929,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -1918,7 +1943,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1932,7 +1957,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -1946,7 +1971,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -1960,7 +1985,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -1974,7 +1999,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1988,7 +2013,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2002,7 +2027,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2016,7 +2041,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -2030,7 +2055,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -2044,7 +2069,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -2058,7 +2083,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -2072,7 +2097,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -2086,7 +2111,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -2100,7 +2125,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -2114,7 +2139,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -2128,7 +2153,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -2142,7 +2167,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -2156,7 +2181,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -2170,7 +2195,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -2184,7 +2209,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -2198,7 +2223,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -2212,7 +2237,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -2226,7 +2251,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -2240,7 +2265,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -2254,7 +2279,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -2268,7 +2293,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -2282,7 +2307,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -2296,7 +2321,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -2310,7 +2335,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -2324,7 +2349,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -2338,7 +2363,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -2352,7 +2377,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -2366,7 +2391,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -2380,7 +2405,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -2394,7 +2419,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -2408,7 +2433,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -2422,7 +2447,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -2452,64 +2477,64 @@
   </sheetPr>
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="999" min="2" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="999" min="2" style="0" width="8.58"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1000" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -2523,16 +2548,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -2546,16 +2571,16 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -2569,16 +2594,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2592,22 +2617,22 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -2618,16 +2643,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -2638,16 +2663,16 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -2658,19 +2683,19 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -2680,19 +2705,19 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -2702,16 +2727,16 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -2721,16 +2746,16 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -2740,23 +2765,23 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G13" s="5"/>
       <c r="I13" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -2767,29 +2792,29 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -2800,29 +2825,29 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>252</v>
-      </c>
       <c r="D15" s="5" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -2833,16 +2858,16 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G16" s="5"/>
       <c r="K16" s="5" t="n">
@@ -2851,22 +2876,22 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G17" s="5"/>
       <c r="K17" s="5" t="n">
@@ -2875,22 +2900,22 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G18" s="5"/>
       <c r="K18" s="5" t="n">
@@ -2899,16 +2924,16 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G19" s="5"/>
       <c r="K19" s="5" t="n">
@@ -2917,16 +2942,16 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G20" s="5"/>
       <c r="K20" s="5" t="n">
@@ -2935,16 +2960,16 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G21" s="5"/>
       <c r="K21" s="5" t="n">
@@ -2953,16 +2978,16 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G22" s="5"/>
       <c r="K22" s="5" t="n">
@@ -2971,16 +2996,16 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G23" s="5"/>
       <c r="K23" s="5" t="n">
@@ -2989,19 +3014,19 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K24" s="5" t="n">
         <v>2</v>
@@ -3009,16 +3034,16 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>3</v>
@@ -3026,16 +3051,16 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K26" s="5" t="n">
         <v>2</v>
@@ -3043,16 +3068,16 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K27" s="5" t="n">
         <v>4</v>
@@ -3060,16 +3085,16 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>4</v>
@@ -3077,16 +3102,16 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K29" s="5" t="n">
         <v>2</v>
@@ -3094,19 +3119,19 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1</v>
@@ -3117,16 +3142,16 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K31" s="5" t="n">
         <v>1</v>
@@ -3134,16 +3159,16 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K32" s="5" t="n">
         <v>1</v>
@@ -3151,16 +3176,16 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K33" s="5" t="n">
         <v>2</v>
@@ -3168,19 +3193,19 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -3191,16 +3216,16 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K35" s="5" t="n">
         <v>1</v>
@@ -3208,16 +3233,16 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K36" s="5" t="n">
         <v>1</v>
@@ -3225,10 +3250,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K37" s="5" t="n">
         <v>1</v>
@@ -3236,10 +3261,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K38" s="5" t="n">
         <v>1</v>
@@ -3247,10 +3272,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K39" s="5" t="n">
         <v>1</v>
@@ -3258,16 +3283,16 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -3281,16 +3306,16 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -3304,16 +3329,16 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -3354,160 +3379,160 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AV1" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AY1" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AZ1" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="BA1" s="0"/>
       <c r="BB1" s="0"/>
@@ -4484,7 +4509,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-1</v>
@@ -5614,7 +5639,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -6744,7 +6769,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -7874,7 +7899,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -9004,7 +9029,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -10134,7 +10159,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -11264,7 +11289,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -12394,7 +12419,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -13524,7 +13549,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -14654,7 +14679,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -15784,7 +15809,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -16914,7 +16939,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -18044,7 +18069,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -19174,7 +19199,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -20304,7 +20329,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -21434,7 +21459,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -22564,7 +22589,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -23694,7 +23719,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -24824,7 +24849,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -25954,7 +25979,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -27084,7 +27109,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -28214,7 +28239,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -29344,7 +29369,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -30474,7 +30499,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -31604,7 +31629,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -32734,7 +32759,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -33864,7 +33889,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -34994,7 +35019,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -36124,7 +36149,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -37254,7 +37279,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -38384,7 +38409,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -39514,7 +39539,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -40644,7 +40669,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -41774,7 +41799,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -42904,7 +42929,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -44034,7 +44059,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -45164,7 +45189,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -46294,7 +46319,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -47424,7 +47449,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -48554,7 +48579,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -49684,7 +49709,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -50814,7 +50839,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -51944,7 +51969,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -53074,7 +53099,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -54204,7 +54229,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -55334,7 +55359,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -56464,7 +56489,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -57594,7 +57619,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -58724,7 +58749,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -59877,27 +59902,27 @@
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="19.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="2" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="2" style="0" width="8.58"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>0</v>
@@ -59905,10 +59930,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>1</v>
@@ -59916,10 +59941,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>1</v>
@@ -59927,10 +59952,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>1</v>
@@ -59938,10 +59963,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>1</v>
@@ -59949,10 +59974,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>0</v>
@@ -59960,10 +59985,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>1</v>
@@ -59971,10 +59996,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>1</v>
@@ -59982,10 +60007,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>1</v>
@@ -59993,10 +60018,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>1</v>
@@ -60004,10 +60029,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C12" s="5" t="n">
         <v>1</v>
@@ -60015,10 +60040,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C13" s="5" t="n">
         <v>1</v>
@@ -60026,10 +60051,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C14" s="5" t="n">
         <v>1</v>
@@ -60037,10 +60062,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C15" s="5" t="n">
         <v>1</v>
@@ -60048,10 +60073,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C16" s="5" t="n">
         <v>1</v>
@@ -60059,10 +60084,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C17" s="5" t="n">
         <v>1</v>
@@ -60070,10 +60095,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C18" s="5" t="n">
         <v>1</v>
@@ -60081,10 +60106,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C19" s="5" t="n">
         <v>0</v>
@@ -60092,10 +60117,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C20" s="5" t="n">
         <v>0</v>
@@ -60103,10 +60128,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C21" s="5" t="n">
         <v>1</v>
@@ -60114,10 +60139,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C22" s="5" t="n">
         <v>0</v>
@@ -60125,10 +60150,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C23" s="5" t="n">
         <v>1</v>
@@ -60136,10 +60161,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C24" s="5" t="n">
         <v>1</v>
@@ -60147,10 +60172,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C25" s="5" t="n">
         <v>1</v>
@@ -60158,10 +60183,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C26" s="5" t="n">
         <v>1</v>
@@ -60169,10 +60194,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C27" s="5" t="n">
         <v>1</v>
@@ -60180,10 +60205,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C28" s="5" t="n">
         <v>1</v>
@@ -60191,10 +60216,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C29" s="5" t="n">
         <v>1</v>
@@ -60202,10 +60227,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C30" s="5" t="n">
         <v>1</v>
@@ -60213,10 +60238,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C31" s="5" t="n">
         <v>1</v>
@@ -60224,10 +60249,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C32" s="5" t="n">
         <v>1</v>
@@ -60235,10 +60260,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C33" s="5" t="n">
         <v>1</v>
@@ -60246,10 +60271,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C34" s="5" t="n">
         <v>1</v>
@@ -60257,10 +60282,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C35" s="5" t="n">
         <v>1</v>
@@ -60268,10 +60293,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C36" s="5" t="n">
         <v>1</v>
@@ -60279,10 +60304,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C37" s="5" t="n">
         <v>1</v>
@@ -60290,10 +60315,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C38" s="5" t="n">
         <v>1</v>
@@ -60301,10 +60326,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C39" s="5" t="n">
         <v>1</v>
@@ -60312,10 +60337,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C40" s="5" t="n">
         <v>1</v>
@@ -60323,10 +60348,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C41" s="5" t="n">
         <v>0</v>
@@ -60334,10 +60359,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C42" s="5" t="n">
         <v>0</v>
@@ -60345,10 +60370,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C43" s="5" t="n">
         <v>0</v>
@@ -60356,10 +60381,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C44" s="5" t="n">
         <v>0</v>
@@ -60390,30 +60415,30 @@
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="2" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="2" style="0" width="8.58"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>0</v>
@@ -60421,10 +60446,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>0</v>
@@ -60432,10 +60457,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>0</v>
@@ -60443,10 +60468,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>0</v>
@@ -60454,10 +60479,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>0</v>
@@ -60465,10 +60490,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>0</v>
@@ -60476,10 +60501,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>0</v>
@@ -60487,10 +60512,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>0</v>
@@ -60498,10 +60523,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>0</v>
@@ -60509,10 +60534,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>0</v>
@@ -60520,10 +60545,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C12" s="5" t="n">
         <v>0</v>
@@ -60531,52 +60556,52 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C13" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C15" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C16" s="5" t="n">
         <v>0</v>
@@ -60585,10 +60610,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C17" s="5" t="n">
         <v>0</v>
@@ -60597,10 +60622,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C18" s="5" t="n">
         <v>0</v>
@@ -60609,10 +60634,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C19" s="5" t="n">
         <v>0</v>
@@ -60621,10 +60646,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C20" s="5" t="n">
         <v>0</v>
@@ -60633,10 +60658,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C21" s="5" t="n">
         <v>0</v>
@@ -60645,10 +60670,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C22" s="5" t="n">
         <v>0</v>
@@ -60657,10 +60682,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C23" s="5" t="n">
         <v>0</v>
@@ -60669,10 +60694,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C24" s="5" t="n">
         <v>0</v>
@@ -60681,10 +60706,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C25" s="5" t="n">
         <v>0</v>
@@ -60693,10 +60718,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C26" s="5" t="n">
         <v>0</v>
@@ -60705,10 +60730,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C27" s="5" t="n">
         <v>0</v>
@@ -60717,10 +60742,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C28" s="5" t="n">
         <v>0</v>
@@ -60729,10 +60754,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C29" s="5" t="n">
         <v>0</v>
@@ -60741,10 +60766,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C30" s="5" t="n">
         <v>0</v>
@@ -60753,10 +60778,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C31" s="5" t="n">
         <v>0</v>
@@ -60765,10 +60790,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C32" s="5" t="n">
         <v>0</v>
@@ -60777,10 +60802,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C33" s="5" t="n">
         <v>0</v>
@@ -60789,10 +60814,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C34" s="5" t="n">
         <v>0</v>
@@ -60801,10 +60826,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C35" s="5" t="n">
         <v>0</v>
@@ -60813,10 +60838,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C36" s="5" t="n">
         <v>0</v>
@@ -60825,10 +60850,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C37" s="5" t="n">
         <v>0</v>
@@ -60837,10 +60862,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C38" s="5" t="n">
         <v>0</v>
@@ -60849,10 +60874,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C39" s="5" t="n">
         <v>0</v>
@@ -60861,10 +60886,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C40" s="5" t="n">
         <v>0</v>
@@ -60873,10 +60898,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C41" s="5" t="n">
         <v>0</v>
@@ -60885,10 +60910,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C42" s="5" t="n">
         <v>0</v>
@@ -60919,227 +60944,227 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.58"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -61166,227 +61191,227 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.58"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -61413,23 +61438,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -61440,7 +61465,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -61451,7 +61476,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -61462,7 +61487,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -61473,7 +61498,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -61484,7 +61509,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -61495,7 +61520,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -61506,7 +61531,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -61517,7 +61542,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -61528,7 +61553,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -61539,7 +61564,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -61550,7 +61575,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -61561,7 +61586,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -61572,7 +61597,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -61583,7 +61608,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -61594,7 +61619,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -61605,7 +61630,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -61616,7 +61641,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -61627,7 +61652,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -61638,7 +61663,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -61649,7 +61674,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -61660,7 +61685,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -61671,7 +61696,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -61682,7 +61707,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -61693,7 +61718,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -61704,7 +61729,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -61715,7 +61740,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -61726,7 +61751,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -61737,7 +61762,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -61748,7 +61773,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -61759,7 +61784,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -61770,7 +61795,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -61781,7 +61806,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -61792,7 +61817,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -61803,7 +61828,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -61814,7 +61839,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -61825,7 +61850,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -61836,7 +61861,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -61847,7 +61872,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -61858,7 +61883,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -61869,7 +61894,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -61902,23 +61927,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -61929,7 +61954,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -61940,7 +61965,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -61951,7 +61976,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -61962,7 +61987,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -61973,7 +61998,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -61984,7 +62009,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -61995,7 +62020,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -62006,7 +62031,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -62017,7 +62042,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -62028,7 +62053,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -62039,7 +62064,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -62050,7 +62075,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -62061,7 +62086,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -62072,7 +62097,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -62083,7 +62108,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -62094,7 +62119,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -62105,7 +62130,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -62116,7 +62141,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -62127,7 +62152,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -62138,7 +62163,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -62149,7 +62174,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -62160,7 +62185,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -62171,7 +62196,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -62182,7 +62207,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -62193,7 +62218,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -62204,7 +62229,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -62215,7 +62240,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -62226,7 +62251,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -62237,7 +62262,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -62248,7 +62273,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -62259,7 +62284,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -62270,7 +62295,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -62281,7 +62306,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -62292,7 +62317,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -62303,7 +62328,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -62314,7 +62339,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -62325,7 +62350,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -62336,7 +62361,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -62347,7 +62372,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -62358,7 +62383,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -62369,7 +62394,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -62380,7 +62405,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -62407,7 +62432,7 @@
   </sheetPr>
   <dimension ref="A1:AMG50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -62420,13 +62445,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D1" s="0"/>
       <c r="E1" s="0"/>
@@ -63449,7 +63474,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="5" t="n">
         <f aca="false">B3+B11</f>
@@ -63461,7 +63486,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="5" t="n">
         <f aca="false">0.63*10^3</f>
@@ -63473,7 +63498,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="5" t="n">
         <f aca="false">0.63*10^3</f>
@@ -63486,7 +63511,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="5" t="n">
         <f aca="false">4.79*10^3</f>
@@ -63499,7 +63524,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="5" t="n">
         <f aca="false">4.79*10^3</f>
@@ -63512,7 +63537,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="5" t="n">
         <f aca="false">0.72*10^3</f>
@@ -63525,7 +63550,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="5" t="n">
         <f aca="false">0.72*10^3</f>
@@ -63538,7 +63563,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="5" t="n">
         <f aca="false">0.72*10^3*0.5</f>
@@ -63551,7 +63576,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="5" t="n">
         <f aca="false">0.72*10^3*0.5</f>
@@ -63564,7 +63589,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="5" t="n">
         <f aca="false">5.51*10^3</f>
@@ -63577,7 +63602,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="5" t="n">
         <f aca="false">0.72*10^3</f>
@@ -63590,7 +63615,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="5" t="n">
         <f aca="false">1.17*10^3*0.5</f>
@@ -63603,7 +63628,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="n">
         <f aca="false">1.17*10^3*0.25</f>
@@ -63616,7 +63641,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="5" t="n">
         <f aca="false">1.17*10^3*0.25</f>
@@ -63629,7 +63654,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="n">
         <f aca="false">1.17*10^3</f>
@@ -63642,7 +63667,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="5" t="n">
         <f aca="false">0.59*10^3*0.5</f>
@@ -63655,7 +63680,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="5" t="n">
         <f aca="false">0.59*10^3*0.5</f>
@@ -63668,7 +63693,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="n">
         <f aca="false">0.44*10^3</f>
@@ -63681,7 +63706,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="5" t="n">
         <f aca="false">0.15*10^3</f>
@@ -63694,7 +63719,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="5" t="n">
         <f aca="false">0.15*10^3</f>
@@ -63707,7 +63732,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="5" t="n">
         <f aca="false">0.01*10^3</f>
@@ -63720,7 +63745,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="5" t="n">
         <f aca="false">0.15*10^3</f>
@@ -63733,7 +63758,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="5" t="n">
         <f aca="false">6.11*10^ 3</f>
@@ -63746,7 +63771,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="5" t="n">
         <f aca="false">6.11*10^ 3</f>
@@ -63759,7 +63784,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="5" t="n">
         <f aca="false">0.57*10^3</f>
@@ -63772,7 +63797,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="5" t="n">
         <f aca="false">0.46*10^3</f>
@@ -63785,7 +63810,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="5" t="n">
         <f aca="false">0.46*10^3</f>
@@ -63798,7 +63823,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="5" t="n">
         <f aca="false">0.46*10^3</f>
@@ -63811,7 +63836,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="5" t="n">
         <f aca="false">5.11*10^3</f>
@@ -63824,7 +63849,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="5" t="n">
         <f aca="false">5.11*10^3</f>
@@ -63837,7 +63862,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="5" t="n">
         <f aca="false">4.36*10^3</f>
@@ -63850,7 +63875,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="5" t="n">
         <f aca="false">4.36*10^3</f>
@@ -63863,7 +63888,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="5" t="n">
         <f aca="false">3.89*10^3</f>
@@ -63876,7 +63901,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="5" t="n">
         <v>700</v>
@@ -63887,7 +63912,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="5" t="n">
         <v>700</v>
@@ -63898,7 +63923,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="5" t="n">
         <v>2230</v>
@@ -63910,7 +63935,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="5" t="n">
         <v>5337.5</v>
@@ -63922,7 +63947,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="5" t="n">
         <v>312.5</v>
@@ -63934,7 +63959,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="5" t="n">
         <v>10000</v>
@@ -63945,7 +63970,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="5" t="n">
         <v>470</v>
@@ -63956,7 +63981,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="5" t="n">
         <v>700</v>
@@ -63967,7 +63992,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" s="5" t="n">
         <v>30</v>
@@ -63978,7 +64003,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B44" s="5" t="n">
         <v>20</v>
@@ -63989,7 +64014,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B45" s="5" t="n">
         <v>290</v>
@@ -64001,7 +64026,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B46" s="5" t="n">
         <v>10</v>
@@ -64013,7 +64038,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B47" s="5" t="n">
         <v>90</v>
@@ -64025,7 +64050,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B48" s="5" t="n">
         <v>140</v>
@@ -64037,7 +64062,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B49" s="5" t="n">
         <v>50</v>
@@ -64049,7 +64074,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B50" s="5" t="n">
         <v>750</v>
